--- a/outputs/compliance_results_expost_2025-11-21.xlsx
+++ b/outputs/compliance_results_expost_2025-11-21.xlsx
@@ -7,8 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IRS_Diversification" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Illiquid" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GICS_Compliance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prospectus_80pct" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40Act_Diversification" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IRS_Diversification" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Illiquid" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Real_Estate" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Commodities" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12d1_Other_Investment_Companies" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12d2_Insurance_Companies" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12d3_Securities_Business" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -60,13 +68,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -433,6 +442,1032 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="7" max="7"/>
+    <col width="36" customWidth="1" min="8" max="8"/>
+    <col width="27" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Overall GICS Compliance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Industry Exceeds 25%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Industry Group Exceeds 25%</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Index Industry Exceeds 25%?</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Index Industry Group Exceeds 25%?</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Can Fund exceed 25% if Index does?</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Exceptions to Conc Policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>* Certain funds may not have more than 25% of total assets in any industry or group of industries. However, other funds may have more than 25% of total assets in an industry or group of industries if (1) the fund’s Underlying ETF invests more than 25% of its assets in that industry or group of industries or (2) the fund is specifically permitted to concentrate in a specified industry or group of industries in its fundamental investment policy (such as information technology). Therefore, some funds have additional info listed about their underlying ETF (represented by an index) or have a note that they can concentrate in a certain industry or group of industries.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="36" customWidth="1" min="7" max="7"/>
+    <col width="33" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Rule 1 (&lt;=5% equities)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rule 2 (&lt;=10% debt)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rule 3 (&lt;=5% total assets)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>12d3 Sec Biz Compliant</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>SEC-Related Businesses (Shs Out %)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Combined Holdings (Portfolio %)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Max Ownership %</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Max Weight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C2" s="3">
+        <f>IF(K2&lt;=0.05,"PASS","FAIL")</f>
+        <v/>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E2" s="3">
+        <f>IF(L2&lt;=0.05,"PASS","FAIL")</f>
+        <v/>
+      </c>
+      <c r="F2" s="3">
+        <f>IF(AND(C2="PASS",D2="PASS",E2="PASS",F2="PASS"),"PASS","FAIL")</f>
+        <v/>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>* Notwithstanding section 12(d)(3) of the Act, an acquiring company may acquire any security issued by a person that, in its most recent fiscal year, derived more than 15 percent of its gross revenues from securities related activities, provided that: (1) Immediately after the acquisition of any equity security, the acquiring company owns not more than 5% of the outstanding securities of that class of the issuer's equity securities; (2) Immediately after the acquisition of any debt security, the acquiring company owns not more than 10% of the outstanding principal amount of the issuer's debt securities; and (3) Immediately after any such acquisition, the acquiring company has invested not more than 5% of the value of its total assets in the securities of the issuer.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="41" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="28" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Prospectus 80% Compliance</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Equity Market Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Option Delta Notional Value (DAN)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Option Market Value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total T-Bill Value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Cash Value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Max(CCET - DAN, 0)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Denominator</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Numerator</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Denominator (Market Value)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Numerator (Market Value)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Formula (MV)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Options in Scope for 80%?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C2" s="3">
+        <f>IF(K2/J2&gt;=0.8,"PASS","FAIL")</f>
+        <v/>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>2445974594.451</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>181284521.994235</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>-3696850</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>21042647.02</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>2648301763.465235</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>2445974594.451</v>
+      </c>
+      <c r="L2" s="4">
+        <f>K2/J2</f>
+        <v/>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>2463320391.471</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>2445974594.451</v>
+      </c>
+      <c r="O2" s="4">
+        <f>N2/M2</f>
+        <v/>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>* Note: Some funds' 80% policies include the options positions while others only include equity exposure.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>* CCET = Cash, Cash Equivalents, and T-bills (less than 1-year maturity).</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
+    <col width="32" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="41" customWidth="1" min="8" max="8"/>
+    <col width="48" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="42" customWidth="1" min="14" max="14"/>
+    <col width="50" customWidth="1" min="15" max="15"/>
+    <col width="34" customWidth="1" min="16" max="16"/>
+    <col width="42" customWidth="1" min="17" max="17"/>
+    <col width="43" customWidth="1" min="18" max="18"/>
+    <col width="50" customWidth="1" min="19" max="19"/>
+    <col width="40" customWidth="1" min="20" max="20"/>
+    <col width="18" customWidth="1" min="21" max="21"/>
+    <col width="12" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fund Registration</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fund Status Today</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Registration Match</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Condition 40 Act 1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Condition 40 Act 2a</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Condition 40 Act 2b</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Condition 2a OCC</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Non-Qualifying Assets Weight</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Net Assets</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Issuer Limited Assets (Condition 2a) Sum</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Issuer Limited Assets (Condition 2a) (Ticker, Shares, Mkt Value)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Excluded Securities (25% Bucket)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative Weight of Excluded Securities</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative Weight of Remaining Securities</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Remaining Securities (Ticker, Shares, Vest Weight, Vest Ownership of Float)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Max Ownership % of Float in 75% bucket</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>OCC Market Value</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>OCC Weight</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" s="3">
+        <f>IF(C2=D2,"PASS","FAIL")</f>
+        <v/>
+      </c>
+      <c r="F2" s="3">
+        <f>IF(L2/J2&gt;=0.75,"PASS","FAIL")</f>
+        <v/>
+      </c>
+      <c r="G2" s="3">
+        <f>IF(O2="None","PASS","FAIL")</f>
+        <v/>
+      </c>
+      <c r="H2" s="3">
+        <f>IF(T2="","",IF(T2&lt;=0.1,"PASS","FAIL"))</f>
+        <v/>
+      </c>
+      <c r="I2" s="3">
+        <f>IF(U2=0,"PASS",IF(U2&lt;=0.05*L2,"PASS","FAIL"))</f>
+        <v/>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>* To be classified as a diversified company under the 1940 Act, at least 75% of the value of the fund's total assets must be invested in:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>* 1) cash and cash items (including receivables),</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>* 2) government securities,</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>* 3) securities of other investment companies, and</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>* 4) other securities</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">* </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>* Compliance Conditions:</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>* Condition 40 Act 1: 75% of the fund must be invested in diversified assets.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>* Condition 40 Act 2a: No single issuer in the 75% can exceed 5% of total assets.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>* Condition 40 Act 2b: No single issuer in the 75% can exceed 10% of the issuer's voting securities.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -594,10 +1629,10 @@
       <c r="J2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4" t="n">
+      <c r="K2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="n">
@@ -608,7 +1643,7 @@
           <t>None</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="inlineStr">
@@ -752,7 +1787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -833,10 +1868,10 @@
       <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="n">
+      <c r="E2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="3">
@@ -879,4 +1914,385 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Real Estate Exposure</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Exposure</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>* We search for tags in Bloomberg for any fund holdings categorized as real estate.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>* If none, it reports 'None'.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Commodities Exposure</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>* We search for tags in Bloomberg for any fund holdings categorized as commodities.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>* If none, it reports 'None'.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="29" customWidth="1" min="7" max="7"/>
+    <col width="32" customWidth="1" min="8" max="8"/>
+    <col width="32" customWidth="1" min="9" max="9"/>
+    <col width="50" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Investment Companies</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Ownership % Max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Equity Market Value Sum</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Test 1 (&lt;=3% Ownership)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Test 2 (&lt;=5% Total Assets)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test 3 (&lt;=10% Total Assets)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>12d1(a) Compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <f>IF(E2&lt;=0.03,"PASS","FAIL")</f>
+        <v/>
+      </c>
+      <c r="H2" s="3">
+        <f>IF(F2/C2&lt;=0.05,"PASS","FAIL")</f>
+        <v/>
+      </c>
+      <c r="I2" s="3">
+        <f>IF(F2/C2&lt;=0.10,"PASS","FAIL")</f>
+        <v/>
+      </c>
+      <c r="J2" s="3">
+        <f>IF(AND(G2="PASS",H2="PASS",I2="PASS"),"PASS","FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>* The Fund will not purchase or otherwise acquire: (i) more than 3% of the total outstanding voting stock of the acquired company; (ii) securities issued by the acquired company having an aggregate value in excess of 5% of the value of the total assets of the acquiring company; or (iii) securities issued by the acquired company and all other investment companies (other than treasury stock of the acquiring company) having an aggregate value in excess of 10% of the value of the total assets of the acquiring company.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Compliant</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Insurance Holdings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>* The Fund may not own more than 10% of the total outstanding voting stock of an insurance company.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/outputs/compliance_results_expost_2025-11-21.xlsx
+++ b/outputs/compliance_results_expost_2025-11-21.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GICS_Compliance" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prospectus_80pct" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40Act_Diversification" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IRS_Diversification" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Illiquid" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Real_Estate" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Commodities" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12d1_Other_Investment_Companies" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12d2_Insurance_Companies" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12d3_Securities_Business" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GICS_Calculations" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prospectus_80pct" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40Act_Diversification" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IRS_Diversification" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Illiquid" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Real_Estate" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Commodities" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12d1_Other_Investment_Companies" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12d2_Insurance_Companies" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12d3_Securities_Business" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,7 +520,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -562,6 +563,93 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Compliant</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Insurance Holdings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>2472809024.16</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>AFL (0.00000%), ALL (0.00000%), CB (0.00000%), CINF (0.00000%), EG (0.00000%), HIG (0.00000%), LNC (0.00000%), MET (0.00000%), PGR (0.00000%), TRV (0.00000%), UNM (0.00000%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>* The Fund may not own more than 10% of the total outstanding voting stock of an insurance company.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,6 +802,2007 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="48" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GICS_Class</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GICS_Class Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GICS_SECTOR_NAME</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exceeding_Fund_25%?</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Exceeding_Index_25%?</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fund_Weight</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Index_Weight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>15.30%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Semiconductors &amp; Semiconductor Equipment</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13.47%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Semiconductors &amp; Semiconductor Equipment</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>13.47%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12.53%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12.53%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Capital Goods</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>10.51%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Capital Markets</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>8.40%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Media &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>7.38%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Banks</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6.90%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Banks</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6.90%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Software &amp; Services</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6.87%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Machinery</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6.66%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary Distribution &amp; Retail</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6.30%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Interactive Media &amp; Services</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4.88%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Consumer Durables &amp; Apparel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>4.27%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Household Durables</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>4.27%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Specialty Retail</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Consumer Finance</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3.77%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3.53%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Health Care Equipment &amp; Services</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>3.48%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>IT Services</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3.35%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Financials</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3.12%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3.04%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Commercial &amp; Professional Services</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Technology Hardware &amp; Equipment</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2.27%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Professional Services</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2.21%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Energy Equipment &amp; Services</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Broadline Retail</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1.93%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Health Care Equipment &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Consumer Services</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1.70%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Hotels, Restaurants &amp; Leisure</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Consumer Discretionary</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1.70%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1.69%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Health Care Providers &amp; Services</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Technology Hardware, Storage &amp; Peripherals</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1.65%</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Electrical Equipment</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Consumer Staples Distribution &amp; Retail</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Consumer Staples Distribution &amp; Retail</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.88%</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Oil, Gas &amp; Consumable Fuels</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Construction &amp; Engineering</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Ground Transportation</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.73%</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Food, Beverage &amp; Tobacco</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Beverages</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Consumer Staples</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Communications Equipment</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Information Technology</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals, Biotechnology &amp; Life Sciences</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Pharmaceuticals</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Commercial Services &amp; Supplies</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_GROUP_NAME</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Chemicals</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45982</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>GICS_INDUSTRY_NAME</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Building Products</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -933,7 +3022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -956,19 +3045,19 @@
     <col width="30" customWidth="1" min="7" max="7"/>
     <col width="41" customWidth="1" min="8" max="8"/>
     <col width="48" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
     <col width="30" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
     <col width="42" customWidth="1" min="14" max="14"/>
     <col width="50" customWidth="1" min="15" max="15"/>
-    <col width="34" customWidth="1" min="16" max="16"/>
+    <col width="50" customWidth="1" min="16" max="16"/>
     <col width="42" customWidth="1" min="17" max="17"/>
     <col width="43" customWidth="1" min="18" max="18"/>
     <col width="50" customWidth="1" min="19" max="19"/>
     <col width="40" customWidth="1" min="20" max="20"/>
     <col width="18" customWidth="1" min="21" max="21"/>
-    <col width="12" customWidth="1" min="22" max="22"/>
+    <col width="23" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
@@ -1045,7 +3134,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Issuer Limited Assets (Condition 2a) (Ticker, Shares, Mkt Value)</t>
+          <t>Issuer Limited Assets (Condition 2a) (Ticker, IIV Shares, Mkt Value)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -1065,7 +3154,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Remaining Securities (Ticker, Shares, Vest Weight, Vest Ownership of Float)</t>
+          <t>Remaining Securities (Ticker, IIV Shares, Vest Weight, Vest Ownership of Float)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -1098,8 +3187,16 @@
           <t>RDVI</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>non-diversified</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>diversified</t>
+        </is>
+      </c>
       <c r="E2" s="3">
         <f>IF(C2=D2,"PASS","FAIL")</f>
         <v/>
@@ -1121,16 +3218,16 @@
         <v/>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0</v>
+        <v>2472809024.16</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0</v>
+        <v>2454314499.24</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0</v>
+        <v>49745.75</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>0</v>
@@ -1142,28 +3239,28 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>GOOGLE, KLAC, AMAT, MLI, NVDA, LRCX, ROST, BK, BKR, AXP</t>
         </is>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>0</v>
+        <v>0.2456017518605123</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>0</v>
+        <v>0.7543982481394876</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(None, 0, 2.11%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.96%, 0.0000000%), (None, 0, 1.95%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.80%, 0.0000000%), (None, 0, 1.78%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.71%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.64%, 0.0000000%), (None, 0, 1.58%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.46%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.32%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.93%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.72%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.59%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.49%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.32%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>0</v>
+        <v>3696850</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0</v>
+        <v>0.001495000205790579</v>
       </c>
       <c r="W2" t="inlineStr"/>
     </row>
@@ -1462,7 +3559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1787,7 +3884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1803,7 +3900,7 @@
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
     <col width="21" customWidth="1" min="5" max="5"/>
     <col width="28" customWidth="1" min="6" max="6"/>
@@ -1863,7 +3960,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0</v>
+        <v>2472809024.16</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -1872,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0</v>
+        <v>0.9891481997004942</v>
       </c>
       <c r="G2" s="3">
         <f>IF(E2&lt;=0.15,"PASS","FAIL")</f>
@@ -1916,7 +4013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1933,7 +4030,7 @@
     <col width="50" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1971,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0</v>
+        <v>2445974594.451</v>
       </c>
     </row>
     <row r="3">
@@ -1999,7 +4096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2071,7 +4168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2087,7 +4184,7 @@
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
@@ -2159,7 +4256,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0</v>
+        <v>2472809024.16</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -2208,91 +4305,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fund</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Compliant</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Assets</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Insurance Holdings</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45982</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>* The Fund may not own more than 10% of the total outstanding voting stock of an insurance company.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/outputs/compliance_results_expost_2025-11-21.xlsx
+++ b/outputs/compliance_results_expost_2025-11-21.xlsx
@@ -785,7 +785,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -794,11 +794,11 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>190203088.24</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AFL (0.00000%), BRO (0.00000%), CB (0.00000%), CINF (0.00000%), ERIE (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2949398.84</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>MMC (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -840,11 +840,11 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>2472809024.16</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MMC (0.00000%)</t>
+          <t>AFL (0.00000%), ALL (0.00000%), CB (0.00000%), CINF (0.00000%), EG (0.00000%), HIG (0.00000%), LNC (0.00000%), MET (0.00000%), PGR (0.00000%), TRV (0.00000%), UNM (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>190203088.24</v>
+        <v>3534389673.28</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AFL (0.00000%), BRO (0.00000%), CB (0.00000%), CINF (0.00000%), ERIE (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -909,11 +909,11 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>54251961.19</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AFL (0.00000%), ALL (0.00000%), CB (0.00000%), CINF (0.00000%), EG (0.00000%), HIG (0.00000%), LNC (0.00000%), MET (0.00000%), PGR (0.00000%), TRV (0.00000%), UNM (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>54251961.19</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C2" s="3">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None (1.36%), None (1.35%), None (1.45%), None (1.38%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>190203088.24</v>
       </c>
       <c r="J2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>0.01448439256345246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C3" s="3">
@@ -1114,22 +1114,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (1.99%), None (2.19%), None (1.92%), None (2.12%), None (2.00%)</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2949398.84</v>
       </c>
       <c r="J3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>0</v>
+        <v>0.02187119596208969</v>
       </c>
     </row>
     <row r="4">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C4" s="3">
@@ -1160,22 +1160,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>None (1.99%), None (2.19%), None (1.92%), None (2.12%), None (2.00%)</t>
+          <t>None (0.81%), None (0.51%), None (2.21%), None (1.40%), None (1.97%), None (2.08%), None (0.45%), None (0.54%), None (1.37%), None (1.80%), None (1.55%), None (0.45%)</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>2472809024.16</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.02187119596208969</v>
+        <v>0.02207467426989948</v>
       </c>
     </row>
     <row r="5">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C6" s="3">
@@ -1252,22 +1252,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (1.36%), None (1.35%), None (1.45%), None (1.38%)</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>190203088.24</v>
+        <v>3534389673.28</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0</v>
+        <v>0.01448439256345246</v>
       </c>
     </row>
     <row r="7">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C7" s="3">
@@ -1298,22 +1298,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>None (0.81%), None (0.51%), None (2.21%), None (1.40%), None (1.97%), None (2.08%), None (0.45%), None (0.54%), None (1.37%), None (1.80%), None (1.55%), None (0.45%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>54251961.19</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.02207467426989948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3">
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>54251961.19</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C2" s="3">
@@ -10884,38 +10884,38 @@
         <v/>
       </c>
       <c r="D2" s="3" t="n">
-        <v>3475474371.456</v>
+        <v>188296705.485</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>372673266.3152868</v>
+        <v>11520885.509914</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-25783353</v>
+        <v>-234940</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>29637499.67</v>
+        <v>1533246.56</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>3877785137.441287</v>
+        <v>201350837.554914</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>3848147637.771287</v>
+        <v>188296705.485</v>
       </c>
       <c r="L2" s="4">
         <f>K2/J2</f>
         <v/>
       </c>
       <c r="M2" s="3" t="n">
-        <v>3479328518.126</v>
+        <v>189595012.045</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>3449691018.456</v>
+        <v>188296705.485</v>
       </c>
       <c r="O2" s="4">
         <f>N2/M2</f>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C3" s="3">
@@ -10941,38 +10941,38 @@
         <v/>
       </c>
       <c r="D3" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2919317.515</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>646176.3903</v>
+        <v>230557.201238</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-15750</v>
+        <v>-4697</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>82164.53999999999</v>
+        <v>25370.08</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>10476135.7203</v>
+        <v>3175244.796238</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>3149874.716237999</v>
       </c>
       <c r="L3" s="4">
         <f>K3/J3</f>
         <v/>
       </c>
       <c r="M3" s="3" t="n">
-        <v>9814209.329999998</v>
+        <v>2939990.595</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2914620.515</v>
       </c>
       <c r="O3" s="4">
         <f>N3/M3</f>
@@ -10980,7 +10980,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C4" s="3">
@@ -10998,38 +10998,38 @@
         <v/>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2919317.515</v>
+        <v>2445974594.451</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>230557.201238</v>
+        <v>181284521.994235</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-4697</v>
+        <v>-3696850</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>25370.08</v>
+        <v>21042647.02</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>3175244.796238</v>
+        <v>2648301763.465235</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>3149874.716237999</v>
+        <v>2445974594.451</v>
       </c>
       <c r="L4" s="4">
         <f>K4/J4</f>
         <v/>
       </c>
       <c r="M4" s="3" t="n">
-        <v>2939990.595</v>
+        <v>2463320391.471</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>2914620.515</v>
+        <v>2445974594.451</v>
       </c>
       <c r="O4" s="4">
         <f>N4/M4</f>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C6" s="3">
@@ -11112,38 +11112,38 @@
         <v/>
       </c>
       <c r="D6" s="3" t="n">
-        <v>188296705.485</v>
+        <v>3475474371.456</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>11520885.509914</v>
+        <v>372673266.3152868</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-234940</v>
+        <v>-25783353</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>1533246.56</v>
+        <v>29637499.67</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>201350837.554914</v>
+        <v>3877785137.441287</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>188296705.485</v>
+        <v>3848147637.771287</v>
       </c>
       <c r="L6" s="4">
         <f>K6/J6</f>
         <v/>
       </c>
       <c r="M6" s="3" t="n">
-        <v>189595012.045</v>
+        <v>3479328518.126</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>188296705.485</v>
+        <v>3449691018.456</v>
       </c>
       <c r="O6" s="4">
         <f>N6/M6</f>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C7" s="3">
@@ -11169,38 +11169,38 @@
         <v/>
       </c>
       <c r="D7" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>19969380.059</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>181284521.994235</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>-3696850</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0</v>
+        <v>3377802036.354166</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>21042647.02</v>
+        <v>415320.37</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0</v>
+        <v>3378217356.724165</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>2648301763.465235</v>
+        <v>3398186736.783165</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>3397771416.413166</v>
       </c>
       <c r="L7" s="4">
         <f>K7/J7</f>
         <v/>
       </c>
       <c r="M7" s="3" t="n">
-        <v>2463320391.471</v>
+        <v>3398186736.783165</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>3397771416.413166</v>
       </c>
       <c r="O7" s="4">
         <f>N7/M7</f>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3">
@@ -11226,38 +11226,38 @@
         <v/>
       </c>
       <c r="D8" s="3" t="n">
-        <v>19969380.059</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="E8" s="3" t="n">
+        <v>646176.3903</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>-15750</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="H8" s="3" t="n">
+        <v>82164.53999999999</v>
+      </c>
+      <c r="I8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>3377802036.354166</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>415320.37</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>3378217356.724165</v>
-      </c>
       <c r="J8" s="3" t="n">
-        <v>3398186736.783165</v>
+        <v>10476135.7203</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>3397771416.413166</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="L8" s="4">
         <f>K8/J8</f>
         <v/>
       </c>
       <c r="M8" s="3" t="n">
-        <v>3398186736.783165</v>
+        <v>9814209.329999998</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>3397771416.413166</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="O8" s="4">
         <f>N8/M8</f>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11480,17 +11480,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>diversified</t>
+          <t>non-diversified</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>diversified</t>
+          <t>non-diversified</t>
         </is>
       </c>
       <c r="E2" s="3">
@@ -11514,49 +11514,49 @@
         <v/>
       </c>
       <c r="J2" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>190203088.24</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>3489899335.27</v>
+        <v>188834563.79</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>70683.72</v>
+        <v>3874.91</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>0</v>
+        <v>37792730.415</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(None, 29,910, 14,095,087.50), (None, 74,848, 11,936,759.04), (None, 59,475, 11,760,883.88)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>CAH, ALB, ATO, EXPD, CHRW, GWW, NUE, DOV, CAT, KVUE, CB, JNJ, CINF, MDT, ABBV, AFL</t>
+          <t>IBM, AVGO</t>
         </is>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>0.2525795865690216</v>
+        <v>0.1898006778825626</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>0.7474204134309783</v>
+        <v>0.8101993221174375</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>(None, 0, 1.46%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.41%, 0.0000000%), (None, 0, 1.41%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.35%, 0.0000000%), (None, 0, 1.35%, 0.0000000%), (None, 0, 1.34%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.29%, 0.0000000%), (None, 0, 1.28%, 0.0000000%), (None, 0, 1.27%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.24%, 0.0000000%), (None, 0, 1.23%, 0.0000000%)</t>
+          <t>(None, 0, 7.41%, 0.0000000%), (None, 0, 6.28%, 0.0000000%), (None, 0, 6.18%, 0.0000000%), (None, 0, 4.73%, 0.0000000%), (None, 0, 4.05%, 0.0000000%), (None, 0, 2.68%, 0.0000000%), (None, 0, 2.53%, 0.0000000%), (None, 0, 2.41%, 0.0000000%), (None, 0, 2.19%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.00%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.65%, 0.0000000%), (None, 0, 1.65%, 0.0000000%), (None, 0, 1.63%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.44%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.21%, 0.0000000%), (None, 0, 1.21%, 0.0000000%), (None, 0, 1.13%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.96%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.90%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.50%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.31%, 0.0000000%), (None, 0, 0.31%, 0.0000000%), (None, 0, 0.30%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.28%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.08%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.03%, 0.0000000%), (None, 0, 0.03%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.01%, 0.0000000%), (None, 0, 0.01%, 0.0000000%), (None, 0, 0.00%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>25783353</v>
+        <v>234940</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0.007294994435651012</v>
+        <v>0.001235206022015534</v>
       </c>
       <c r="W2" t="inlineStr"/>
     </row>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>non-diversified</t>
+          <t>diversified</t>
         </is>
       </c>
       <c r="E3" s="3">
@@ -11600,49 +11600,49 @@
         <v/>
       </c>
       <c r="J3" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2949398.84</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>9778898.85</v>
+        <v>2927194.66</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>200.73</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>2342534.395</v>
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>(None, 8,542, 889,606.59), (None, 1,426, 847,215.12), (None, 7,961, 605,712.68)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>GOOGLE, AMZN</t>
+          <t>LLY, INCY, SLB, UTHR, BKR, APO, TJX, CBOE, APH, CAT</t>
         </is>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>0.2419566186636648</v>
+        <v>0.232095136781918</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>0.7580433813363352</v>
+        <v>0.767904863218082</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>(None, 0, 9.03%, 0.0000000%), (None, 0, 8.60%, 0.0000000%), (None, 0, 6.15%, 0.0000000%), (None, 0, 4.58%, 0.0000000%), (None, 0, 4.26%, 0.0000000%), (None, 0, 3.80%, 0.0000000%), (None, 0, 3.28%, 0.0000000%), (None, 0, 2.95%, 0.0000000%), (None, 0, 2.45%, 0.0000000%), (None, 0, 2.43%, 0.0000000%), (None, 0, 2.41%, 0.0000000%), (None, 0, 2.13%, 0.0000000%), (None, 0, 2.06%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.53%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.06%, 0.0000000%), (None, 0, 1.01%, 0.0000000%), (None, 0, 0.89%, 0.0000000%), (None, 0, 0.86%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.65%, 0.0000000%), (None, 0, 0.62%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.25%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.16%, 0.0000000%)</t>
+          <t>(None, 0, 2.14%, 0.0000000%), (None, 0, 2.12%, 0.0000000%), (None, 0, 2.10%, 0.0000000%), (None, 0, 2.09%, 0.0000000%), (None, 0, 2.05%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 2.02%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.00%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.98%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.94%, 0.0000000%), (None, 0, 1.92%, 0.0000000%), (None, 0, 1.92%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.83%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.73%, 0.0000000%), (None, 0, 1.72%, 0.0000000%), (None, 0, 1.70%, 0.0000000%), (None, 0, 1.66%, 0.0000000%), (None, 0, 1.61%, 0.0000000%), (None, 0, 1.61%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.57%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>15750</v>
+        <v>4697</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0.0015987949126488</v>
+        <v>0.001592527920028612</v>
       </c>
       <c r="W3" t="inlineStr"/>
     </row>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -11686,16 +11686,16 @@
         <v/>
       </c>
       <c r="J4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>2472809024.16</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>2927194.66</v>
+        <v>2454314499.24</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>67.90000000000001</v>
+        <v>49745.75</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>0</v>
@@ -11707,28 +11707,28 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>LLY, INCY, SLB, UTHR, BKR, APO, TJX, CBOE, APH, CAT</t>
+          <t>GOOGLE, KLAC, AMAT, MLI, NVDA, LRCX, ROST, BK, BKR, AXP</t>
         </is>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.232095136781918</v>
+        <v>0.2456017518605123</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.767904863218082</v>
+        <v>0.7543982481394876</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>(None, 0, 2.14%, 0.0000000%), (None, 0, 2.12%, 0.0000000%), (None, 0, 2.10%, 0.0000000%), (None, 0, 2.09%, 0.0000000%), (None, 0, 2.05%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 2.02%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.00%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.98%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.94%, 0.0000000%), (None, 0, 1.92%, 0.0000000%), (None, 0, 1.92%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.83%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.73%, 0.0000000%), (None, 0, 1.72%, 0.0000000%), (None, 0, 1.70%, 0.0000000%), (None, 0, 1.66%, 0.0000000%), (None, 0, 1.61%, 0.0000000%), (None, 0, 1.61%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.57%, 0.0000000%)</t>
+          <t>(None, 0, 2.11%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.96%, 0.0000000%), (None, 0, 1.95%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.80%, 0.0000000%), (None, 0, 1.78%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.71%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.64%, 0.0000000%), (None, 0, 1.58%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.46%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.32%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.93%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.72%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.59%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.49%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.32%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>4697</v>
+        <v>3696850</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.001592527920028612</v>
+        <v>0.001495000205790579</v>
       </c>
       <c r="W4" t="inlineStr"/>
     </row>
@@ -11824,17 +11824,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>non-diversified</t>
+          <t>diversified</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>non-diversified</t>
+          <t>diversified</t>
         </is>
       </c>
       <c r="E6" s="3">
@@ -11858,49 +11858,49 @@
         <v/>
       </c>
       <c r="J6" s="3" t="n">
-        <v>190203088.24</v>
+        <v>3534389673.28</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>188834563.79</v>
+        <v>3489899335.27</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>3874.91</v>
+        <v>70683.72</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>37792730.415</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>(None, 29,910, 14,095,087.50), (None, 74,848, 11,936,759.04), (None, 59,475, 11,760,883.88)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>IBM, AVGO</t>
+          <t>CAH, ALB, ATO, EXPD, CHRW, GWW, NUE, DOV, CAT, KVUE, CB, JNJ, CINF, MDT, ABBV, AFL</t>
         </is>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>0.1898006778825626</v>
+        <v>0.2525795865690216</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>0.8101993221174375</v>
+        <v>0.7474204134309783</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>(None, 0, 7.41%, 0.0000000%), (None, 0, 6.28%, 0.0000000%), (None, 0, 6.18%, 0.0000000%), (None, 0, 4.73%, 0.0000000%), (None, 0, 4.05%, 0.0000000%), (None, 0, 2.68%, 0.0000000%), (None, 0, 2.53%, 0.0000000%), (None, 0, 2.41%, 0.0000000%), (None, 0, 2.19%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.00%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.65%, 0.0000000%), (None, 0, 1.65%, 0.0000000%), (None, 0, 1.63%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.44%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.21%, 0.0000000%), (None, 0, 1.21%, 0.0000000%), (None, 0, 1.13%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.96%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.90%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.50%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.31%, 0.0000000%), (None, 0, 0.31%, 0.0000000%), (None, 0, 0.30%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.28%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.08%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.03%, 0.0000000%), (None, 0, 0.03%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.01%, 0.0000000%), (None, 0, 0.01%, 0.0000000%), (None, 0, 0.00%, 0.0000000%)</t>
+          <t>(None, 0, 1.46%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.41%, 0.0000000%), (None, 0, 1.41%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.35%, 0.0000000%), (None, 0, 1.35%, 0.0000000%), (None, 0, 1.34%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.29%, 0.0000000%), (None, 0, 1.28%, 0.0000000%), (None, 0, 1.27%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.24%, 0.0000000%), (None, 0, 1.23%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>234940</v>
+        <v>25783353</v>
       </c>
       <c r="V6" s="5" t="n">
-        <v>0.001235206022015534</v>
+        <v>0.007294994435651012</v>
       </c>
       <c r="W6" t="inlineStr"/>
     </row>
@@ -11910,7 +11910,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -11944,16 +11944,16 @@
         <v/>
       </c>
       <c r="J7" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>54251961.19</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>2454314499.24</v>
+        <v>44944054.03</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>49745.75</v>
+        <v>896.65</v>
       </c>
       <c r="N7" s="3" t="n">
         <v>0</v>
@@ -11965,28 +11965,28 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>GOOGLE, KLAC, AMAT, MLI, NVDA, LRCX, ROST, BK, BKR, AXP</t>
+          <t>AMGN, VZ, MRK, KO, PG, MCD</t>
         </is>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.2456017518605123</v>
+        <v>0.2865331378518726</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.7543982481394876</v>
+        <v>0.7134668621481275</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>(None, 0, 2.11%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.96%, 0.0000000%), (None, 0, 1.95%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.80%, 0.0000000%), (None, 0, 1.78%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.71%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.64%, 0.0000000%), (None, 0, 1.58%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.46%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.32%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.93%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.72%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.59%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.49%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.32%, 0.0000000%)</t>
+          <t>(None, 0, 3.54%, 0.0000000%), (None, 0, 3.49%, 0.0000000%), (None, 0, 3.34%, 0.0000000%), (None, 0, 2.69%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>3696850</v>
+        <v>0</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0.001495000205790579</v>
+        <v>0</v>
       </c>
       <c r="W7" t="inlineStr"/>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>diversified</t>
+          <t>non-diversified</t>
         </is>
       </c>
       <c r="E8" s="3">
@@ -12030,49 +12030,49 @@
         <v/>
       </c>
       <c r="J8" s="3" t="n">
-        <v>54251961.19</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>44944054.03</v>
+        <v>9778898.85</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>896.65</v>
+        <v>200.73</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>0</v>
+        <v>2342534.395</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(None, 8,542, 889,606.59), (None, 1,426, 847,215.12), (None, 7,961, 605,712.68)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>AMGN, VZ, MRK, KO, PG, MCD</t>
+          <t>GOOGLE, AMZN</t>
         </is>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>0.2865331378518726</v>
+        <v>0.2419566186636648</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0.7134668621481275</v>
+        <v>0.7580433813363352</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>(None, 0, 3.54%, 0.0000000%), (None, 0, 3.49%, 0.0000000%), (None, 0, 3.34%, 0.0000000%), (None, 0, 2.69%, 0.0000000%)</t>
+          <t>(None, 0, 9.03%, 0.0000000%), (None, 0, 8.60%, 0.0000000%), (None, 0, 6.15%, 0.0000000%), (None, 0, 4.58%, 0.0000000%), (None, 0, 4.26%, 0.0000000%), (None, 0, 3.80%, 0.0000000%), (None, 0, 3.28%, 0.0000000%), (None, 0, 2.95%, 0.0000000%), (None, 0, 2.45%, 0.0000000%), (None, 0, 2.43%, 0.0000000%), (None, 0, 2.41%, 0.0000000%), (None, 0, 2.13%, 0.0000000%), (None, 0, 2.06%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.53%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.06%, 0.0000000%), (None, 0, 1.01%, 0.0000000%), (None, 0, 0.89%, 0.0000000%), (None, 0, 0.86%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.65%, 0.0000000%), (None, 0, 0.62%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.25%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.16%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>0</v>
+        <v>15750</v>
       </c>
       <c r="V8" s="5" t="n">
-        <v>0</v>
+        <v>0.0015987949126488</v>
       </c>
       <c r="W8" t="inlineStr"/>
     </row>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12530,16 +12530,16 @@
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>190203088.24</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>3449691018.455999</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>70683.72</v>
+        <v>3874.91</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>176719483.664</v>
+        <v>9510154.412</v>
       </c>
       <c r="L2" s="5" t="n">
         <v>0</v>
@@ -12562,12 +12562,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>PG (1.42%)</t>
+          <t>N/A (0.00%)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>WMT (1.42%)</t>
+          <t>N/A (0.00%)</t>
         </is>
       </c>
     </row>
@@ -12577,7 +12577,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2949398.84</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>200.73</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>492558.485</v>
+        <v>147469.942</v>
       </c>
       <c r="L3" s="5" t="n">
         <v>0</v>
@@ -12651,7 +12651,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -12678,16 +12678,16 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>2472809024.16</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>67.90000000000001</v>
+        <v>49745.75</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>147469.942</v>
+        <v>123640451.208</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>0</v>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12826,16 +12826,16 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>190203088.24</v>
+        <v>3534389673.28</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0</v>
+        <v>3449691018.455999</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>3874.91</v>
+        <v>70683.72</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9510154.412</v>
+        <v>176719483.664</v>
       </c>
       <c r="L6" s="5" t="n">
         <v>0</v>
@@ -12858,12 +12858,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>N/A (0.00%)</t>
+          <t>PG (1.42%)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>N/A (0.00%)</t>
+          <t>WMT (1.42%)</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -12900,16 +12900,16 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>54251961.19</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0</v>
+        <v>19969380.059</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>49745.75</v>
+        <v>896.65</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>123640451.208</v>
+        <v>2712598.0595</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>0</v>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12974,16 +12974,16 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>54251961.19</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>19969380.059</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>896.65</v>
+        <v>200.73</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2712598.0595</v>
+        <v>492558.485</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>0</v>
@@ -13212,11 +13212,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>190203088.24</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.9833308414549194</v>
+        <v>0.9899771198636139</v>
       </c>
       <c r="G2" s="3">
         <f>IF(E2&lt;=0.15,"PASS","FAIL")</f>
@@ -13242,11 +13242,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2949398.84</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.989506331415649</v>
+        <v>0.9898008622665627</v>
       </c>
       <c r="G3" s="3">
         <f>IF(E3&lt;=0.15,"PASS","FAIL")</f>
@@ -13272,11 +13272,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>2472809024.16</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9898008622665627</v>
+        <v>0.9891481997004942</v>
       </c>
       <c r="G4" s="3">
         <f>IF(E4&lt;=0.15,"PASS","FAIL")</f>
@@ -13332,11 +13332,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>190203088.24</v>
+        <v>3534389673.28</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9899771198636139</v>
+        <v>0.9833308414549194</v>
       </c>
       <c r="G6" s="3">
         <f>IF(E6&lt;=0.15,"PASS","FAIL")</f>
@@ -13362,11 +13362,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>54251961.19</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9891481997004942</v>
+        <v>0.3680858649342406</v>
       </c>
       <c r="G7" s="3">
         <f>IF(E7&lt;=0.15,"PASS","FAIL")</f>
@@ -13392,11 +13392,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>54251961.19</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3680858649342406</v>
+        <v>0.989506331415649</v>
       </c>
       <c r="G8" s="3">
         <f>IF(E8&lt;=0.15,"PASS","FAIL")</f>
@@ -13497,14 +13497,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>3475474371.456</v>
+        <v>188296705.485</v>
       </c>
     </row>
     <row r="3">
@@ -13513,14 +13513,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2919317.515</v>
       </c>
     </row>
     <row r="4">
@@ -13529,14 +13529,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2919317.515</v>
+        <v>2445974594.451</v>
       </c>
     </row>
     <row r="5">
@@ -13561,14 +13561,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>188296705.485</v>
+        <v>3475474371.456</v>
       </c>
     </row>
     <row r="7">
@@ -13577,14 +13577,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>19969380.059</v>
       </c>
     </row>
     <row r="8">
@@ -13593,14 +13593,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>19969380.059</v>
+        <v>9747794.789999999</v>
       </c>
     </row>
     <row r="9">
@@ -13670,7 +13670,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
@@ -13696,7 +13696,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
@@ -13862,11 +13862,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>190203088.24</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2949398.84</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -13942,11 +13942,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>2472809024.16</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -14022,11 +14022,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>190203088.24</v>
+        <v>3534389673.28</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>54251961.19</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -14102,11 +14102,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>54251961.19</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/outputs/compliance_results_expost_2025-11-21.xlsx
+++ b/outputs/compliance_results_expost_2025-11-21.xlsx
@@ -649,7 +649,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -658,11 +658,11 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>52846233.31</v>
+        <v>24293147.02</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AFL (0.00000%), ALL (0.00000%), CB (0.00000%), CINF (0.00000%), EG (0.00000%), HIG (0.00000%), LNC (0.00000%), MET (0.00000%), PGR (0.00000%), TRV (0.00000%), UNM (0.00000%)</t>
+          <t>CB (0.00000%), MET (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>R21126</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -681,11 +681,11 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>24293147.02</v>
+        <v>52846233.31</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CB (0.00000%), MET (0.00000%)</t>
+          <t>AFL (0.00000%), ALL (0.00000%), CB (0.00000%), CINF (0.00000%), EG (0.00000%), HIG (0.00000%), LNC (0.00000%), MET (0.00000%), PGR (0.00000%), TRV (0.00000%), UNM (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="C2" s="3">
@@ -817,22 +817,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None (0.75%), None (0.47%), None (2.06%), None (1.30%), None (1.84%), None (1.93%), None (0.42%), None (0.51%), None (1.28%), None (1.67%), None (1.45%), None (0.42%)</t>
+          <t>None (0.75%), None (0.39%), None (0.41%), None (0.65%), None (1.84%), None (0.52%), None (0.36%), None (0.34%), None (0.16%), None (0.60%)</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>52846233.31</v>
+        <v>24293147.02</v>
       </c>
       <c r="J2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>0.02058899398974023</v>
+        <v>0.01835160095285177</v>
       </c>
     </row>
     <row r="3">
@@ -841,7 +841,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>R21126</t>
         </is>
       </c>
       <c r="C3" s="3">
@@ -863,22 +863,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>None (0.75%), None (0.39%), None (0.41%), None (0.65%), None (1.84%), None (0.52%), None (0.36%), None (0.34%), None (0.16%), None (0.60%)</t>
+          <t>None (0.75%), None (0.47%), None (2.06%), None (1.30%), None (1.84%), None (1.93%), None (0.42%), None (0.51%), None (1.28%), None (1.67%), None (1.45%), None (0.42%)</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>24293147.02</v>
+        <v>52846233.31</v>
       </c>
       <c r="J3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>0.01835160095285177</v>
+        <v>0.02058899398974023</v>
       </c>
     </row>
     <row r="4">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="C2" s="3">
@@ -5400,38 +5400,38 @@
         <v/>
       </c>
       <c r="D2" s="3" t="n">
-        <v>48822987.49999999</v>
+        <v>20531520.84</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>512.83423728</v>
+        <v>2080648.20256421</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0</v>
+        <v>-65189</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>103663.44921875</v>
+        <v>45873.9990234375</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>103150.61498147</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>48927163.78345602</v>
+        <v>22658043.04158765</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>48822987.49999999</v>
+        <v>20531520.84</v>
       </c>
       <c r="L2" s="4">
         <f>K2/J2</f>
         <v/>
       </c>
       <c r="M2" s="3" t="n">
-        <v>48926650.94921874</v>
+        <v>20512205.83902344</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>48822987.49999999</v>
+        <v>20531520.84</v>
       </c>
       <c r="O2" s="4">
         <f>N2/M2</f>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>R21126</t>
         </is>
       </c>
       <c r="C3" s="3">
@@ -5457,38 +5457,38 @@
         <v/>
       </c>
       <c r="D3" s="3" t="n">
-        <v>20531520.84</v>
+        <v>48822987.49999999</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>2080648.20256421</v>
+        <v>512.83423728</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-65189</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45873.9990234375</v>
+        <v>103663.44921875</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0</v>
+        <v>103150.61498147</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>22658043.04158765</v>
+        <v>48927163.78345602</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>20531520.84</v>
+        <v>48822987.49999999</v>
       </c>
       <c r="L3" s="4">
         <f>K3/J3</f>
         <v/>
       </c>
       <c r="M3" s="3" t="n">
-        <v>20512205.83902344</v>
+        <v>48926650.94921874</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>20531520.84</v>
+        <v>48822987.49999999</v>
       </c>
       <c r="O3" s="4">
         <f>N3/M3</f>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5745,16 +5745,16 @@
         <v/>
       </c>
       <c r="J2" s="3" t="n">
-        <v>52846233.31</v>
+        <v>24293147.02</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>49252287.25</v>
+        <v>20717665.35</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>10576.62</v>
+        <v>4491.06</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>0</v>
@@ -5766,28 +5766,28 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>GOOGLE, KLAC, AMAT, MLI, NVDA, LRCX, ROST, BK, BKR, AXP, EBAY</t>
+          <t>NVDA, AAPL, MSFT, AVGO</t>
         </is>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>0.2659866179108261</v>
+        <v>0.2616910394297878</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>0.7340133820891739</v>
+        <v>0.7383089605702122</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>(None, 0, 1.93%, 0.0000000%), (None, 0, 1.90%, 0.0000000%), (None, 0, 1.90%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.83%, 0.0000000%), (None, 0, 1.83%, 0.0000000%), (None, 0, 1.78%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.74%, 0.0000000%), (None, 0, 1.73%, 0.0000000%), (None, 0, 1.73%, 0.0000000%), (None, 0, 1.69%, 0.0000000%), (None, 0, 1.67%, 0.0000000%), (None, 0, 1.66%, 0.0000000%), (None, 0, 1.64%, 0.0000000%), (None, 0, 1.59%, 0.0000000%), (None, 0, 1.57%, 0.0000000%), (None, 0, 1.56%, 0.0000000%), (None, 0, 1.53%, 0.0000000%), (None, 0, 1.47%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.28%, 0.0000000%), (None, 0, 1.24%, 0.0000000%), (None, 0, 1.24%, 0.0000000%), (None, 0, 1.04%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.88%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.76%, 0.0000000%), (None, 0, 0.75%, 0.0000000%), (None, 0, 0.68%, 0.0000000%), (None, 0, 0.65%, 0.0000000%), (None, 0, 0.62%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.50%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.36%, 0.0000000%), (None, 0, 0.36%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.30%, 0.0000000%)</t>
+          <t>(None, 0, 3.41%, 0.0000000%), (None, 0, 2.02%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.51%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.18%, 0.0000000%), (None, 0, 1.10%, 0.0000000%), (None, 0, 1.04%, 0.0000000%), (None, 0, 1.02%, 0.0000000%), (None, 0, 0.93%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.75%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.72%, 0.0000000%), (None, 0, 0.71%, 0.0000000%), (None, 0, 0.70%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.65%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.60%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.36%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.33%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.30%, 0.0000000%), (None, 0, 0.30%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.28%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.22%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>0</v>
+        <v>65189</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0</v>
+        <v>0.002683431666812512</v>
       </c>
       <c r="W2" t="inlineStr"/>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>R21126</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5831,16 +5831,16 @@
         <v/>
       </c>
       <c r="J3" s="3" t="n">
-        <v>24293147.02</v>
+        <v>52846233.31</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>20717665.35</v>
+        <v>49252287.25</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>4491.06</v>
+        <v>10576.62</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>0</v>
@@ -5852,28 +5852,28 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>NVDA, AAPL, MSFT, AVGO</t>
+          <t>GOOGLE, KLAC, AMAT, MLI, NVDA, LRCX, ROST, BK, BKR, AXP, EBAY</t>
         </is>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>0.2616910394297878</v>
+        <v>0.2659866179108261</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>0.7383089605702122</v>
+        <v>0.7340133820891739</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>(None, 0, 3.41%, 0.0000000%), (None, 0, 2.02%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.51%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.18%, 0.0000000%), (None, 0, 1.10%, 0.0000000%), (None, 0, 1.04%, 0.0000000%), (None, 0, 1.02%, 0.0000000%), (None, 0, 0.93%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.75%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.72%, 0.0000000%), (None, 0, 0.71%, 0.0000000%), (None, 0, 0.70%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.65%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.60%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.36%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.33%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.30%, 0.0000000%), (None, 0, 0.30%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.28%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.22%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%), (None, 0, nan%, 0.0000000%)</t>
+          <t>(None, 0, 1.93%, 0.0000000%), (None, 0, 1.90%, 0.0000000%), (None, 0, 1.90%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.83%, 0.0000000%), (None, 0, 1.83%, 0.0000000%), (None, 0, 1.78%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.74%, 0.0000000%), (None, 0, 1.73%, 0.0000000%), (None, 0, 1.73%, 0.0000000%), (None, 0, 1.69%, 0.0000000%), (None, 0, 1.67%, 0.0000000%), (None, 0, 1.66%, 0.0000000%), (None, 0, 1.64%, 0.0000000%), (None, 0, 1.59%, 0.0000000%), (None, 0, 1.57%, 0.0000000%), (None, 0, 1.56%, 0.0000000%), (None, 0, 1.53%, 0.0000000%), (None, 0, 1.47%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.28%, 0.0000000%), (None, 0, 1.24%, 0.0000000%), (None, 0, 1.24%, 0.0000000%), (None, 0, 1.04%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.88%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.76%, 0.0000000%), (None, 0, 0.75%, 0.0000000%), (None, 0, 0.68%, 0.0000000%), (None, 0, 0.65%, 0.0000000%), (None, 0, 0.62%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.50%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.36%, 0.0000000%), (None, 0, 0.36%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.30%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>65189</v>
+        <v>0</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0.002683431666812512</v>
+        <v>0</v>
       </c>
       <c r="W3" t="inlineStr"/>
     </row>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6331,26 +6331,26 @@
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>52846233.31</v>
+        <v>24293147.02</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0</v>
+        <v>16651926.38</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>10576.62</v>
+        <v>4491.06</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>2642311.6655</v>
+        <v>1214657.351</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>0</v>
+        <v>0.2210311491492452</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(, 8.12%), (, 7.53%), (, 6.46%)</t>
         </is>
       </c>
       <c r="O2" s="5" t="n">
@@ -6363,12 +6363,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>N/A (0.00%)</t>
+          <t>ABBV (1.09%)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>N/A (0.00%)</t>
+          <t>NEE (1.07%)</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>R21126</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6405,26 +6405,26 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>24293147.02</v>
+        <v>52846233.31</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>16651926.38</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>4491.06</v>
+        <v>10576.62</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>1214657.351</v>
+        <v>2642311.6655</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>0.2210311491492452</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>(, 8.12%), (, 7.53%), (, 6.46%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O3" s="5" t="n">
@@ -6437,12 +6437,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>ABBV (1.09%)</t>
+          <t>N/A (0.00%)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>NEE (1.07%)</t>
+          <t>N/A (0.00%)</t>
         </is>
       </c>
     </row>
@@ -6643,11 +6643,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>52846233.31</v>
+        <v>24293147.02</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.9238688254960511</v>
+        <v>0.8451569005488201</v>
       </c>
       <c r="G2" s="3">
         <f>IF(E2&lt;=0.15,"PASS","FAIL")</f>
@@ -6673,11 +6673,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>R21126</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>24293147.02</v>
+        <v>52846233.31</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.8451569005488201</v>
+        <v>0.9238688254960511</v>
       </c>
       <c r="G3" s="3">
         <f>IF(E3&lt;=0.15,"PASS","FAIL")</f>
@@ -6778,14 +6778,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>48822987.49999999</v>
+        <v>20531520.84</v>
       </c>
     </row>
     <row r="3">
@@ -6794,14 +6794,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>R21126</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>20531520.84</v>
+        <v>48822987.49999999</v>
       </c>
     </row>
     <row r="4">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>R21126</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
@@ -6998,11 +6998,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>52846233.31</v>
+        <v>24293147.02</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -7038,11 +7038,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>R21126</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>24293147.02</v>
+        <v>52846233.31</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/outputs/compliance_results_expost_2025-11-21.xlsx
+++ b/outputs/compliance_results_expost_2025-11-21.xlsx
@@ -785,7 +785,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -794,11 +794,11 @@
         </is>
       </c>
       <c r="D2" s="3" t="n">
-        <v>663468524.62</v>
+        <v>54251961.19</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AGO (0.00000%), AIZ (0.00000%), AXS (0.00000%), CINF (0.00000%), CNO (0.00000%), EG (0.00000%), KMPR (0.00000%), LNC (0.00000%), ORI (0.00000%), PFG (0.00000%), PRI (0.00000%), RGA (0.00000%), RNR (0.00000%), SIGI (0.00000%), THG (0.00000%), UNM (0.00000%), WRB (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>190203088.24</v>
+        <v>663468524.62</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AGO (0.00000%), AIZ (0.00000%), AXS (0.00000%), CINF (0.00000%), CNO (0.00000%), EG (0.00000%), KMPR (0.00000%), LNC (0.00000%), ORI (0.00000%), PFG (0.00000%), PRI (0.00000%), RGA (0.00000%), RNR (0.00000%), SIGI (0.00000%), THG (0.00000%), UNM (0.00000%), WRB (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -840,11 +840,11 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>190203088.24</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MMC (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -863,11 +863,11 @@
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>2949398.84</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AFL (0.00000%), BRO (0.00000%), CB (0.00000%), CINF (0.00000%), ERIE (0.00000%)</t>
+          <t>MMC (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2472809024.16</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AFL (0.00000%), ALL (0.00000%), CB (0.00000%), CINF (0.00000%), EG (0.00000%), HIG (0.00000%), LNC (0.00000%), MET (0.00000%), PGR (0.00000%), TRV (0.00000%), UNM (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -909,11 +909,11 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>54251961.19</v>
+        <v>3534389673.28</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AFL (0.00000%), BRO (0.00000%), CB (0.00000%), CINF (0.00000%), ERIE (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -932,11 +932,11 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AFL (0.00000%), ALL (0.00000%), CB (0.00000%), CINF (0.00000%), EG (0.00000%), HIG (0.00000%), LNC (0.00000%), MET (0.00000%), PGR (0.00000%), TRV (0.00000%), UNM (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C2" s="3">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>None (0.24%), None (0.94%), None (0.95%), None (0.54%), None (0.78%), None (0.21%), None (0.78%), None (0.88%), None (0.82%), None (0.18%), None (0.21%), None (0.20%), None (0.60%), None (0.78%), None (0.60%), None (0.42%), None (0.96%), None (0.81%), None (0.23%), None (0.16%), None (0.63%), None (0.93%), None (0.77%), None (0.77%), None (0.21%), None (0.38%), None (0.80%), None (0.37%), None (0.74%), None (0.61%), None (0.18%), None (0.85%), None (0.20%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>663468524.62</v>
+        <v>54251961.19</v>
       </c>
       <c r="J2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>0.009616312625612796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C3" s="3">
@@ -1114,22 +1114,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (0.24%), None (0.94%), None (0.95%), None (0.54%), None (0.78%), None (0.21%), None (0.78%), None (0.88%), None (0.82%), None (0.18%), None (0.21%), None (0.20%), None (0.60%), None (0.78%), None (0.60%), None (0.42%), None (0.96%), None (0.81%), None (0.23%), None (0.16%), None (0.63%), None (0.93%), None (0.77%), None (0.77%), None (0.21%), None (0.38%), None (0.80%), None (0.37%), None (0.74%), None (0.61%), None (0.18%), None (0.85%), None (0.20%)</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>190203088.24</v>
+        <v>663468524.62</v>
       </c>
       <c r="J3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>0</v>
+        <v>0.009616312625612796</v>
       </c>
     </row>
     <row r="4">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C4" s="3">
@@ -1160,22 +1160,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>None (1.99%), None (2.19%), None (1.92%), None (2.12%), None (2.00%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>190203088.24</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.02187119596208969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C5" s="3">
@@ -1206,22 +1206,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None (1.36%), None (1.35%), None (1.45%), None (1.38%)</t>
+          <t>None (1.99%), None (2.19%), None (1.92%), None (2.12%), None (2.00%)</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>2949398.84</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01448439256345246</v>
+        <v>0.02187119596208969</v>
       </c>
     </row>
     <row r="6">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C6" s="3">
@@ -1252,22 +1252,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (0.81%), None (0.51%), None (2.21%), None (1.40%), None (1.97%), None (2.08%), None (0.45%), None (0.54%), None (1.37%), None (1.80%), None (1.55%), None (0.45%)</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2472809024.16</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0</v>
+        <v>0.02207467426989948</v>
       </c>
     </row>
     <row r="7">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C7" s="3">
@@ -1298,22 +1298,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (1.36%), None (1.35%), None (1.45%), None (1.38%)</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>54251961.19</v>
+        <v>3534389673.28</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0</v>
+        <v>0.01448439256345246</v>
       </c>
     </row>
     <row r="8">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3">
@@ -1344,22 +1344,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>None (0.81%), None (0.51%), None (2.21%), None (1.40%), None (1.97%), None (2.08%), None (0.45%), None (0.54%), None (1.37%), None (1.80%), None (1.55%), None (0.45%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02207467426989948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C2" s="3">
@@ -10884,38 +10884,38 @@
         <v/>
       </c>
       <c r="D2" s="3" t="n">
-        <v>657311377.3779998</v>
+        <v>19969380.059</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>38521279.14385921</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>-985920.0000000001</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0</v>
+        <v>3377802036.354166</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>5581024.7</v>
+        <v>415320.37</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0</v>
+        <v>3378217356.724165</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>701413681.221859</v>
+        <v>3398186736.783165</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>657311377.3779998</v>
+        <v>3397771416.413166</v>
       </c>
       <c r="L2" s="4">
         <f>K2/J2</f>
         <v/>
       </c>
       <c r="M2" s="3" t="n">
-        <v>661906482.0779998</v>
+        <v>3398186736.783165</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>657311377.3779998</v>
+        <v>3397771416.413166</v>
       </c>
       <c r="O2" s="4">
         <f>N2/M2</f>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C3" s="3">
@@ -10941,38 +10941,38 @@
         <v/>
       </c>
       <c r="D3" s="3" t="n">
-        <v>188296705.485</v>
+        <v>657311377.3779998</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>11520885.509914</v>
+        <v>38521279.14385921</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-234940</v>
+        <v>-985920.0000000001</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>1533246.56</v>
+        <v>5581024.7</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>201350837.554914</v>
+        <v>701413681.221859</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>188296705.485</v>
+        <v>657311377.3779998</v>
       </c>
       <c r="L3" s="4">
         <f>K3/J3</f>
         <v/>
       </c>
       <c r="M3" s="3" t="n">
-        <v>189595012.045</v>
+        <v>661906482.0779998</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>188296705.485</v>
+        <v>657311377.3779998</v>
       </c>
       <c r="O3" s="4">
         <f>N3/M3</f>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C4" s="3">
@@ -10998,38 +10998,38 @@
         <v/>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2919317.515</v>
+        <v>188296705.485</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>230557.201238</v>
+        <v>11520885.509914</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-4697</v>
+        <v>-234940</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>25370.08</v>
+        <v>1533246.56</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>3175244.796238</v>
+        <v>201350837.554914</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>3149874.716237999</v>
+        <v>188296705.485</v>
       </c>
       <c r="L4" s="4">
         <f>K4/J4</f>
         <v/>
       </c>
       <c r="M4" s="3" t="n">
-        <v>2939990.595</v>
+        <v>189595012.045</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>2914620.515</v>
+        <v>188296705.485</v>
       </c>
       <c r="O4" s="4">
         <f>N4/M4</f>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C5" s="3">
@@ -11055,38 +11055,38 @@
         <v/>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3475474371.456</v>
+        <v>2919317.515</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>372673266.3152868</v>
+        <v>230557.201238</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>-25783353</v>
+        <v>-4697</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>29637499.67</v>
+        <v>25370.08</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>3877785137.441287</v>
+        <v>3175244.796238</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>3848147637.771287</v>
+        <v>3149874.716237999</v>
       </c>
       <c r="L5" s="4">
         <f>K5/J5</f>
         <v/>
       </c>
       <c r="M5" s="3" t="n">
-        <v>3479328518.126</v>
+        <v>2939990.595</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>3449691018.456</v>
+        <v>2914620.515</v>
       </c>
       <c r="O5" s="4">
         <f>N5/M5</f>
@@ -11104,7 +11104,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C6" s="3">
@@ -11112,38 +11112,38 @@
         <v/>
       </c>
       <c r="D6" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2445974594.451</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>646176.3903</v>
+        <v>181284521.994235</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-15750</v>
+        <v>-3696850</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>82164.53999999999</v>
+        <v>21042647.02</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>10476135.7203</v>
+        <v>2648301763.465235</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2445974594.451</v>
       </c>
       <c r="L6" s="4">
         <f>K6/J6</f>
         <v/>
       </c>
       <c r="M6" s="3" t="n">
-        <v>9814209.329999998</v>
+        <v>2463320391.471</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2445974594.451</v>
       </c>
       <c r="O6" s="4">
         <f>N6/M6</f>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C7" s="3">
@@ -11169,38 +11169,38 @@
         <v/>
       </c>
       <c r="D7" s="3" t="n">
-        <v>19969380.059</v>
+        <v>3475474371.456</v>
       </c>
       <c r="E7" s="3" t="n">
+        <v>372673266.3152868</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>-25783353</v>
+      </c>
+      <c r="G7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="H7" s="3" t="n">
+        <v>29637499.67</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>3377802036.354166</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>415320.37</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>3378217356.724165</v>
-      </c>
       <c r="J7" s="3" t="n">
-        <v>3398186736.783165</v>
+        <v>3877785137.441287</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>3397771416.413166</v>
+        <v>3848147637.771287</v>
       </c>
       <c r="L7" s="4">
         <f>K7/J7</f>
         <v/>
       </c>
       <c r="M7" s="3" t="n">
-        <v>3398186736.783165</v>
+        <v>3479328518.126</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>3397771416.413166</v>
+        <v>3449691018.456</v>
       </c>
       <c r="O7" s="4">
         <f>N7/M7</f>
@@ -11218,7 +11218,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3">
@@ -11226,38 +11226,38 @@
         <v/>
       </c>
       <c r="D8" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>181284521.994235</v>
+        <v>646176.3903</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-3696850</v>
+        <v>-15750</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>21042647.02</v>
+        <v>82164.53999999999</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>2648301763.465235</v>
+        <v>10476135.7203</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="L8" s="4">
         <f>K8/J8</f>
         <v/>
       </c>
       <c r="M8" s="3" t="n">
-        <v>2463320391.471</v>
+        <v>9814209.329999998</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="O8" s="4">
         <f>N8/M8</f>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -11514,16 +11514,16 @@
         <v/>
       </c>
       <c r="J2" s="3" t="n">
-        <v>663468524.62</v>
+        <v>54251961.19</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>658467017.83</v>
+        <v>44944054.03</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>15119.15</v>
+        <v>896.65</v>
       </c>
       <c r="N2" s="3" t="n">
         <v>0</v>
@@ -11535,28 +11535,28 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>FIX, IDCC, ENS, YOU, IBP, COKE, MLI, RL, WWD, WFRD, PSMT, FOXA, WMS, NYT, EME, ITT, WTS, IBKR, WRB, CBOE, CADE, NTRS, NOV, MTG</t>
+          <t>AMGN, VZ, MRK, KO, PG, MCD</t>
         </is>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>0.2510737438935515</v>
+        <v>0.2865331378518726</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>0.7489262561064485</v>
+        <v>0.7134668621481275</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>(None, 0, 0.89%, 0.0000000%), (None, 0, 0.88%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.86%, 0.0000000%), (None, 0, 0.85%, 0.0000000%), (None, 0, 0.85%, 0.0000000%), (None, 0, 0.84%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.82%, 0.0000000%), (None, 0, 0.82%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.80%, 0.0000000%), (None, 0, 0.80%, 0.0000000%), (None, 0, 0.80%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.77%, 0.0000000%), (None, 0, 0.77%, 0.0000000%), (None, 0, 0.77%, 0.0000000%), (None, 0, 0.76%, 0.0000000%), (None, 0, 0.75%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.73%, 0.0000000%), (None, 0, 0.73%, 0.0000000%), (None, 0, 0.71%, 0.0000000%), (None, 0, 0.70%, 0.0000000%), (None, 0, 0.70%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.68%, 0.0000000%), (None, 0, 0.68%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.64%, 0.0000000%), (None, 0, 0.64%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.60%, 0.0000000%), (None, 0, 0.60%, 0.0000000%), (None, 0, 0.59%, 0.0000000%), (None, 0, 0.58%, 0.0000000%), (None, 0, 0.58%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.50%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.26%, 0.0000000%), (None, 0, 0.26%, 0.0000000%), (None, 0, 0.25%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.22%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.15%, 0.0000000%), (None, 0, 0.15%, 0.0000000%), (None, 0, 0.15%, 0.0000000%), (None, 0, 0.14%, 0.0000000%), (None, 0, 0.14%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.09%, 0.0000000%)</t>
+          <t>(None, 0, 3.54%, 0.0000000%), (None, 0, 3.49%, 0.0000000%), (None, 0, 3.34%, 0.0000000%), (None, 0, 2.69%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>985920.0000000001</v>
+        <v>0</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0.001486008700359499</v>
+        <v>0</v>
       </c>
       <c r="W2" t="inlineStr"/>
     </row>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>non-diversified</t>
+          <t>diversified</t>
         </is>
       </c>
       <c r="E3" s="3">
@@ -11600,49 +11600,49 @@
         <v/>
       </c>
       <c r="J3" s="3" t="n">
-        <v>190203088.24</v>
+        <v>663468524.62</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>188834563.79</v>
+        <v>658467017.83</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>3874.91</v>
+        <v>15119.15</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>37792730.415</v>
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>(None, 29,910, 14,095,087.50), (None, 74,848, 11,936,759.04), (None, 59,475, 11,760,883.88)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>IBM, AVGO</t>
+          <t>FIX, IDCC, ENS, YOU, IBP, COKE, MLI, RL, WWD, WFRD, PSMT, FOXA, WMS, NYT, EME, ITT, WTS, IBKR, WRB, CBOE, CADE, NTRS, NOV, MTG</t>
         </is>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>0.1898006778825626</v>
+        <v>0.2510737438935515</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>0.8101993221174375</v>
+        <v>0.7489262561064485</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>(None, 0, 7.41%, 0.0000000%), (None, 0, 6.28%, 0.0000000%), (None, 0, 6.18%, 0.0000000%), (None, 0, 4.73%, 0.0000000%), (None, 0, 4.05%, 0.0000000%), (None, 0, 2.68%, 0.0000000%), (None, 0, 2.53%, 0.0000000%), (None, 0, 2.41%, 0.0000000%), (None, 0, 2.19%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.00%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.65%, 0.0000000%), (None, 0, 1.65%, 0.0000000%), (None, 0, 1.63%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.44%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.21%, 0.0000000%), (None, 0, 1.21%, 0.0000000%), (None, 0, 1.13%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.96%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.90%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.50%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.31%, 0.0000000%), (None, 0, 0.31%, 0.0000000%), (None, 0, 0.30%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.28%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.08%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.03%, 0.0000000%), (None, 0, 0.03%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.01%, 0.0000000%), (None, 0, 0.01%, 0.0000000%), (None, 0, 0.00%, 0.0000000%)</t>
+          <t>(None, 0, 0.89%, 0.0000000%), (None, 0, 0.88%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.86%, 0.0000000%), (None, 0, 0.85%, 0.0000000%), (None, 0, 0.85%, 0.0000000%), (None, 0, 0.84%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.82%, 0.0000000%), (None, 0, 0.82%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.80%, 0.0000000%), (None, 0, 0.80%, 0.0000000%), (None, 0, 0.80%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.77%, 0.0000000%), (None, 0, 0.77%, 0.0000000%), (None, 0, 0.77%, 0.0000000%), (None, 0, 0.76%, 0.0000000%), (None, 0, 0.75%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.73%, 0.0000000%), (None, 0, 0.73%, 0.0000000%), (None, 0, 0.71%, 0.0000000%), (None, 0, 0.70%, 0.0000000%), (None, 0, 0.70%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.68%, 0.0000000%), (None, 0, 0.68%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.64%, 0.0000000%), (None, 0, 0.64%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.60%, 0.0000000%), (None, 0, 0.60%, 0.0000000%), (None, 0, 0.59%, 0.0000000%), (None, 0, 0.58%, 0.0000000%), (None, 0, 0.58%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.50%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.26%, 0.0000000%), (None, 0, 0.26%, 0.0000000%), (None, 0, 0.25%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.22%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.15%, 0.0000000%), (None, 0, 0.15%, 0.0000000%), (None, 0, 0.15%, 0.0000000%), (None, 0, 0.14%, 0.0000000%), (None, 0, 0.14%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.09%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>234940</v>
+        <v>985920.0000000001</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0.001235206022015534</v>
+        <v>0.001486008700359499</v>
       </c>
       <c r="W3" t="inlineStr"/>
     </row>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>diversified</t>
+          <t>non-diversified</t>
         </is>
       </c>
       <c r="E4" s="3">
@@ -11686,49 +11686,49 @@
         <v/>
       </c>
       <c r="J4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>190203088.24</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>2927194.66</v>
+        <v>188834563.79</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>67.90000000000001</v>
+        <v>3874.91</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0</v>
+        <v>37792730.415</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(None, 29,910, 14,095,087.50), (None, 74,848, 11,936,759.04), (None, 59,475, 11,760,883.88)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>LLY, INCY, SLB, UTHR, BKR, APO, TJX, CBOE, APH, CAT</t>
+          <t>IBM, AVGO</t>
         </is>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.232095136781918</v>
+        <v>0.1898006778825626</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.767904863218082</v>
+        <v>0.8101993221174375</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>(None, 0, 2.14%, 0.0000000%), (None, 0, 2.12%, 0.0000000%), (None, 0, 2.10%, 0.0000000%), (None, 0, 2.09%, 0.0000000%), (None, 0, 2.05%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 2.02%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.00%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.98%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.94%, 0.0000000%), (None, 0, 1.92%, 0.0000000%), (None, 0, 1.92%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.83%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.73%, 0.0000000%), (None, 0, 1.72%, 0.0000000%), (None, 0, 1.70%, 0.0000000%), (None, 0, 1.66%, 0.0000000%), (None, 0, 1.61%, 0.0000000%), (None, 0, 1.61%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.57%, 0.0000000%)</t>
+          <t>(None, 0, 7.41%, 0.0000000%), (None, 0, 6.28%, 0.0000000%), (None, 0, 6.18%, 0.0000000%), (None, 0, 4.73%, 0.0000000%), (None, 0, 4.05%, 0.0000000%), (None, 0, 2.68%, 0.0000000%), (None, 0, 2.53%, 0.0000000%), (None, 0, 2.41%, 0.0000000%), (None, 0, 2.19%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.00%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.65%, 0.0000000%), (None, 0, 1.65%, 0.0000000%), (None, 0, 1.63%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.44%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.21%, 0.0000000%), (None, 0, 1.21%, 0.0000000%), (None, 0, 1.13%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.96%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.90%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.50%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.31%, 0.0000000%), (None, 0, 0.31%, 0.0000000%), (None, 0, 0.30%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.28%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.08%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.03%, 0.0000000%), (None, 0, 0.03%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.01%, 0.0000000%), (None, 0, 0.01%, 0.0000000%), (None, 0, 0.00%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>4697</v>
+        <v>234940</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.001592527920028612</v>
+        <v>0.001235206022015534</v>
       </c>
       <c r="W4" t="inlineStr"/>
     </row>
@@ -11738,12 +11738,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>diversified</t>
+          <t>non-diversified</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -11772,16 +11772,16 @@
         <v/>
       </c>
       <c r="J5" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>2949398.84</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>3489899335.27</v>
+        <v>2927194.66</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>70683.72</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="N5" s="3" t="n">
         <v>0</v>
@@ -11793,28 +11793,28 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>CAH, ALB, ATO, EXPD, CHRW, GWW, NUE, DOV, CAT, KVUE, CB, JNJ, CINF, MDT, ABBV, AFL</t>
+          <t>LLY, INCY, SLB, UTHR, BKR, APO, TJX, CBOE, APH, CAT</t>
         </is>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>0.2525795865690216</v>
+        <v>0.232095136781918</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>0.7474204134309783</v>
+        <v>0.767904863218082</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>(None, 0, 1.46%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.41%, 0.0000000%), (None, 0, 1.41%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.35%, 0.0000000%), (None, 0, 1.35%, 0.0000000%), (None, 0, 1.34%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.29%, 0.0000000%), (None, 0, 1.28%, 0.0000000%), (None, 0, 1.27%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.24%, 0.0000000%), (None, 0, 1.23%, 0.0000000%)</t>
+          <t>(None, 0, 2.14%, 0.0000000%), (None, 0, 2.12%, 0.0000000%), (None, 0, 2.10%, 0.0000000%), (None, 0, 2.09%, 0.0000000%), (None, 0, 2.05%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 2.02%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.00%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.98%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.94%, 0.0000000%), (None, 0, 1.92%, 0.0000000%), (None, 0, 1.92%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.83%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.73%, 0.0000000%), (None, 0, 1.72%, 0.0000000%), (None, 0, 1.70%, 0.0000000%), (None, 0, 1.66%, 0.0000000%), (None, 0, 1.61%, 0.0000000%), (None, 0, 1.61%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.57%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>25783353</v>
+        <v>4697</v>
       </c>
       <c r="V5" s="5" t="n">
-        <v>0.007294994435651012</v>
+        <v>0.001592527920028612</v>
       </c>
       <c r="W5" t="inlineStr"/>
     </row>
@@ -11824,7 +11824,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -11834,7 +11834,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>non-diversified</t>
+          <t>diversified</t>
         </is>
       </c>
       <c r="E6" s="3">
@@ -11858,49 +11858,49 @@
         <v/>
       </c>
       <c r="J6" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2472809024.16</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>9778898.85</v>
+        <v>2454314499.24</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>200.73</v>
+        <v>49745.75</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>2342534.395</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>(None, 8,542, 889,606.59), (None, 1,426, 847,215.12), (None, 7,961, 605,712.68)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>GOOGLE, AMZN</t>
+          <t>GOOGLE, KLAC, AMAT, MLI, NVDA, LRCX, ROST, BK, BKR, AXP</t>
         </is>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>0.2419566186636648</v>
+        <v>0.2456017518605123</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>0.7580433813363352</v>
+        <v>0.7543982481394876</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>(None, 0, 9.03%, 0.0000000%), (None, 0, 8.60%, 0.0000000%), (None, 0, 6.15%, 0.0000000%), (None, 0, 4.58%, 0.0000000%), (None, 0, 4.26%, 0.0000000%), (None, 0, 3.80%, 0.0000000%), (None, 0, 3.28%, 0.0000000%), (None, 0, 2.95%, 0.0000000%), (None, 0, 2.45%, 0.0000000%), (None, 0, 2.43%, 0.0000000%), (None, 0, 2.41%, 0.0000000%), (None, 0, 2.13%, 0.0000000%), (None, 0, 2.06%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.53%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.06%, 0.0000000%), (None, 0, 1.01%, 0.0000000%), (None, 0, 0.89%, 0.0000000%), (None, 0, 0.86%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.65%, 0.0000000%), (None, 0, 0.62%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.25%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.16%, 0.0000000%)</t>
+          <t>(None, 0, 2.11%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.96%, 0.0000000%), (None, 0, 1.95%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.80%, 0.0000000%), (None, 0, 1.78%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.71%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.64%, 0.0000000%), (None, 0, 1.58%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.46%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.32%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.93%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.72%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.59%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.49%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.32%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>15750</v>
+        <v>3696850</v>
       </c>
       <c r="V6" s="5" t="n">
-        <v>0.0015987949126488</v>
+        <v>0.001495000205790579</v>
       </c>
       <c r="W6" t="inlineStr"/>
     </row>
@@ -11910,12 +11910,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>non-diversified</t>
+          <t>diversified</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -11944,16 +11944,16 @@
         <v/>
       </c>
       <c r="J7" s="3" t="n">
-        <v>54251961.19</v>
+        <v>3534389673.28</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>44944054.03</v>
+        <v>3489899335.27</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>896.65</v>
+        <v>70683.72</v>
       </c>
       <c r="N7" s="3" t="n">
         <v>0</v>
@@ -11965,28 +11965,28 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>AMGN, VZ, MRK, KO, PG, MCD</t>
+          <t>CAH, ALB, ATO, EXPD, CHRW, GWW, NUE, DOV, CAT, KVUE, CB, JNJ, CINF, MDT, ABBV, AFL</t>
         </is>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.2865331378518726</v>
+        <v>0.2525795865690216</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.7134668621481275</v>
+        <v>0.7474204134309783</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>(None, 0, 3.54%, 0.0000000%), (None, 0, 3.49%, 0.0000000%), (None, 0, 3.34%, 0.0000000%), (None, 0, 2.69%, 0.0000000%)</t>
+          <t>(None, 0, 1.46%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.41%, 0.0000000%), (None, 0, 1.41%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.35%, 0.0000000%), (None, 0, 1.35%, 0.0000000%), (None, 0, 1.34%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.29%, 0.0000000%), (None, 0, 1.28%, 0.0000000%), (None, 0, 1.27%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.24%, 0.0000000%), (None, 0, 1.23%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0</v>
+        <v>25783353</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0</v>
+        <v>0.007294994435651012</v>
       </c>
       <c r="W7" t="inlineStr"/>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12006,7 +12006,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>diversified</t>
+          <t>non-diversified</t>
         </is>
       </c>
       <c r="E8" s="3">
@@ -12030,49 +12030,49 @@
         <v/>
       </c>
       <c r="J8" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>2454314499.24</v>
+        <v>9778898.85</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>49745.75</v>
+        <v>200.73</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>0</v>
+        <v>2342534.395</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(None, 8,542, 889,606.59), (None, 1,426, 847,215.12), (None, 7,961, 605,712.68)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>GOOGLE, KLAC, AMAT, MLI, NVDA, LRCX, ROST, BK, BKR, AXP</t>
+          <t>GOOGLE, AMZN</t>
         </is>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>0.2456017518605123</v>
+        <v>0.2419566186636648</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0.7543982481394876</v>
+        <v>0.7580433813363352</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>(None, 0, 2.11%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.96%, 0.0000000%), (None, 0, 1.95%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.80%, 0.0000000%), (None, 0, 1.78%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.71%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.64%, 0.0000000%), (None, 0, 1.58%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.46%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.32%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.93%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.72%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.59%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.49%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.32%, 0.0000000%)</t>
+          <t>(None, 0, 9.03%, 0.0000000%), (None, 0, 8.60%, 0.0000000%), (None, 0, 6.15%, 0.0000000%), (None, 0, 4.58%, 0.0000000%), (None, 0, 4.26%, 0.0000000%), (None, 0, 3.80%, 0.0000000%), (None, 0, 3.28%, 0.0000000%), (None, 0, 2.95%, 0.0000000%), (None, 0, 2.45%, 0.0000000%), (None, 0, 2.43%, 0.0000000%), (None, 0, 2.41%, 0.0000000%), (None, 0, 2.13%, 0.0000000%), (None, 0, 2.06%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.53%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.06%, 0.0000000%), (None, 0, 1.01%, 0.0000000%), (None, 0, 0.89%, 0.0000000%), (None, 0, 0.86%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.65%, 0.0000000%), (None, 0, 0.62%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.25%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.16%, 0.0000000%)</t>
         </is>
       </c>
       <c r="T8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>3696850</v>
+        <v>15750</v>
       </c>
       <c r="V8" s="5" t="n">
-        <v>0.001495000205790579</v>
+        <v>0.0015987949126488</v>
       </c>
       <c r="W8" t="inlineStr"/>
     </row>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -12530,16 +12530,16 @@
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>663468524.62</v>
+        <v>54251961.19</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>657311377.378</v>
+        <v>19969380.059</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>15119.15</v>
+        <v>896.65</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>33173426.231</v>
+        <v>2712598.0595</v>
       </c>
       <c r="L2" s="5" t="n">
         <v>0</v>
@@ -12562,12 +12562,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>ATMU (0.75%)</t>
+          <t>N/A (0.00%)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>DCI (0.75%)</t>
+          <t>N/A (0.00%)</t>
         </is>
       </c>
     </row>
@@ -12577,7 +12577,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -12604,26 +12604,26 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>190203088.24</v>
+        <v>663468524.62</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>188296705.485</v>
+        <v>657311377.378</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>3874.91</v>
+        <v>15119.15</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>9510154.412</v>
+        <v>33173426.231</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>0.3899373989175353</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>(, 9.81%), (, 9.17%), (, 7.46%), (, 6.32%), (, 6.23%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O3" s="5" t="n">
@@ -12636,12 +12636,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>AMAT (2.69%)</t>
+          <t>ATMU (0.75%)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>ADI (2.55%)</t>
+          <t>DCI (0.75%)</t>
         </is>
       </c>
     </row>
@@ -12651,7 +12651,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -12678,26 +12678,26 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>190203088.24</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>2919317.515</v>
+        <v>188296705.485</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>67.90000000000001</v>
+        <v>3874.91</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>147469.942</v>
+        <v>9510154.412</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>0.3899373989175353</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(, 9.81%), (, 9.17%), (, 7.46%), (, 6.32%), (, 6.23%)</t>
         </is>
       </c>
       <c r="O4" s="5" t="n">
@@ -12710,12 +12710,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>SCHW (2.02%)</t>
+          <t>AMAT (2.69%)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>MMC (2.01%)</t>
+          <t>ADI (2.55%)</t>
         </is>
       </c>
     </row>
@@ -12725,7 +12725,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -12752,16 +12752,16 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>2949398.84</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>3449691018.455999</v>
+        <v>2919317.515</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>70683.72</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>176719483.664</v>
+        <v>147469.942</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
@@ -12784,12 +12784,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>PG (1.42%)</t>
+          <t>SCHW (2.02%)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>WMT (1.42%)</t>
+          <t>MMC (2.01%)</t>
         </is>
       </c>
     </row>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12826,26 +12826,26 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2472809024.16</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2445974594.451</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>200.73</v>
+        <v>49745.75</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>492558.485</v>
+        <v>123640451.208</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4815065343476786</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>(, 13.71%), (, 10.48%), (, 9.10%), (, 8.66%), (, 6.19%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O6" s="5" t="n">
@@ -12858,12 +12858,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>CRM (4.61%)</t>
+          <t>UNM (1.85%)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>BKNG (4.29%)</t>
+          <t>CTSH (1.82%)</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -12900,16 +12900,16 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>54251961.19</v>
+        <v>3534389673.28</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>19969380.059</v>
+        <v>3449691018.455999</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>896.65</v>
+        <v>70683.72</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>2712598.0595</v>
+        <v>176719483.664</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>0</v>
@@ -12932,12 +12932,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>N/A (0.00%)</t>
+          <t>PG (1.42%)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>N/A (0.00%)</t>
+          <t>WMT (1.42%)</t>
         </is>
       </c>
     </row>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12974,26 +12974,26 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>49745.75</v>
+        <v>200.73</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>123640451.208</v>
+        <v>492558.485</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0</v>
+        <v>0.4815065343476786</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(, 13.71%), (, 10.48%), (, 9.10%), (, 8.66%), (, 6.19%)</t>
         </is>
       </c>
       <c r="O8" s="5" t="n">
@@ -13006,12 +13006,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>UNM (1.85%)</t>
+          <t>CRM (4.61%)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>CTSH (1.82%)</t>
+          <t>BKNG (4.29%)</t>
         </is>
       </c>
     </row>
@@ -13212,11 +13212,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>663468524.62</v>
+        <v>54251961.19</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -13225,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.990719759847648</v>
+        <v>0.3680858649342406</v>
       </c>
       <c r="G2" s="3">
         <f>IF(E2&lt;=0.15,"PASS","FAIL")</f>
@@ -13242,11 +13242,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>190203088.24</v>
+        <v>663468524.62</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.9899771198636139</v>
+        <v>0.990719759847648</v>
       </c>
       <c r="G3" s="3">
         <f>IF(E3&lt;=0.15,"PASS","FAIL")</f>
@@ -13272,11 +13272,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>190203088.24</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9898008622665627</v>
+        <v>0.9899771198636139</v>
       </c>
       <c r="G4" s="3">
         <f>IF(E4&lt;=0.15,"PASS","FAIL")</f>
@@ -13302,11 +13302,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>2949398.84</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9833308414549194</v>
+        <v>0.9898008622665627</v>
       </c>
       <c r="G5" s="3">
         <f>IF(E5&lt;=0.15,"PASS","FAIL")</f>
@@ -13332,11 +13332,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2472809024.16</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.989506331415649</v>
+        <v>0.9891481997004942</v>
       </c>
       <c r="G6" s="3">
         <f>IF(E6&lt;=0.15,"PASS","FAIL")</f>
@@ -13362,11 +13362,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>54251961.19</v>
+        <v>3534389673.28</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3680858649342406</v>
+        <v>0.9833308414549194</v>
       </c>
       <c r="G7" s="3">
         <f>IF(E7&lt;=0.15,"PASS","FAIL")</f>
@@ -13392,11 +13392,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9891481997004942</v>
+        <v>0.989506331415649</v>
       </c>
       <c r="G8" s="3">
         <f>IF(E8&lt;=0.15,"PASS","FAIL")</f>
@@ -13497,14 +13497,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>657311377.3779998</v>
+        <v>19969380.059</v>
       </c>
     </row>
     <row r="3">
@@ -13513,14 +13513,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>188296705.485</v>
+        <v>657311377.3779998</v>
       </c>
     </row>
     <row r="4">
@@ -13529,14 +13529,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2919317.515</v>
+        <v>188296705.485</v>
       </c>
     </row>
     <row r="5">
@@ -13545,14 +13545,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>3475474371.456</v>
+        <v>2919317.515</v>
       </c>
     </row>
     <row r="6">
@@ -13561,14 +13561,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2445974594.451</v>
       </c>
     </row>
     <row r="7">
@@ -13577,14 +13577,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>19969380.059</v>
+        <v>3475474371.456</v>
       </c>
     </row>
     <row r="8">
@@ -13593,14 +13593,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>9747794.789999999</v>
       </c>
     </row>
     <row r="9">
@@ -13670,7 +13670,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
@@ -13696,7 +13696,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
@@ -13709,7 +13709,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
@@ -13862,11 +13862,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>663468524.62</v>
+        <v>54251961.19</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>190203088.24</v>
+        <v>663468524.62</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -13942,11 +13942,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>2949398.84</v>
+        <v>190203088.24</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>2949398.84</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -14022,11 +14022,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2472809024.16</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>54251961.19</v>
+        <v>3534389673.28</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -14102,11 +14102,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/outputs/compliance_results_expost_2025-11-21.xlsx
+++ b/outputs/compliance_results_expost_2025-11-21.xlsx
@@ -26,10 +26,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -69,7 +68,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -77,7 +76,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -808,7 +806,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -817,11 +815,11 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>663468524.62</v>
+        <v>3534389673.28</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AGO (0.00000%), AIZ (0.00000%), AXS (0.00000%), CINF (0.00000%), CNO (0.00000%), EG (0.00000%), KMPR (0.00000%), LNC (0.00000%), ORI (0.00000%), PFG (0.00000%), PRI (0.00000%), RGA (0.00000%), RNR (0.00000%), SIGI (0.00000%), THG (0.00000%), UNM (0.00000%), WRB (0.00000%)</t>
+          <t>AFL (0.00000%), BRO (0.00000%), CB (0.00000%), CINF (0.00000%), ERIE (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -831,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -840,7 +838,7 @@
         </is>
       </c>
       <c r="D4" s="3" t="n">
-        <v>190203088.24</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -877,7 +875,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -886,11 +884,11 @@
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>663468524.62</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AFL (0.00000%), ALL (0.00000%), CB (0.00000%), CINF (0.00000%), EG (0.00000%), HIG (0.00000%), LNC (0.00000%), MET (0.00000%), PGR (0.00000%), TRV (0.00000%), UNM (0.00000%)</t>
+          <t>AGO (0.00000%), AIZ (0.00000%), AXS (0.00000%), CINF (0.00000%), CNO (0.00000%), EG (0.00000%), KMPR (0.00000%), LNC (0.00000%), ORI (0.00000%), PFG (0.00000%), PRI (0.00000%), RGA (0.00000%), RNR (0.00000%), SIGI (0.00000%), THG (0.00000%), UNM (0.00000%), WRB (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -900,7 +898,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -909,11 +907,11 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>190203088.24</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AFL (0.00000%), BRO (0.00000%), CB (0.00000%), CINF (0.00000%), ERIE (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -923,7 +921,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -932,11 +930,11 @@
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2472809024.16</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>AFL (0.00000%), ALL (0.00000%), CB (0.00000%), CINF (0.00000%), EG (0.00000%), HIG (0.00000%), LNC (0.00000%), MET (0.00000%), PGR (0.00000%), TRV (0.00000%), UNM (0.00000%)</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1061,7 @@
         <v/>
       </c>
       <c r="F2" s="3">
-        <f>IF(AND(C2="PASS",D2="PASS",E2="PASS",F2="PASS"),"PASS","FAIL")</f>
+        <f>IF(AND(C2="PASS",D2="PASS",E2="PASS"),"PASS","FAIL")</f>
         <v/>
       </c>
       <c r="G2" t="inlineStr">
@@ -1079,10 +1077,10 @@
       <c r="I2" s="3" t="n">
         <v>54251961.19</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1092,7 +1090,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C3" s="3">
@@ -1109,27 +1107,27 @@
         <v/>
       </c>
       <c r="F3" s="3">
-        <f>IF(AND(C3="PASS",D3="PASS",E3="PASS",F3="PASS"),"PASS","FAIL")</f>
+        <f>IF(AND(C3="PASS",D3="PASS",E3="PASS"),"PASS","FAIL")</f>
         <v/>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>None (0.24%), None (0.94%), None (0.95%), None (0.54%), None (0.78%), None (0.21%), None (0.78%), None (0.88%), None (0.82%), None (0.18%), None (0.21%), None (0.20%), None (0.60%), None (0.78%), None (0.60%), None (0.42%), None (0.96%), None (0.81%), None (0.23%), None (0.16%), None (0.63%), None (0.93%), None (0.77%), None (0.77%), None (0.21%), None (0.38%), None (0.80%), None (0.37%), None (0.74%), None (0.61%), None (0.18%), None (0.85%), None (0.20%)</t>
+          <t>None (1.36%), None (1.35%), None (1.45%), None (1.38%)</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>663468524.62</v>
-      </c>
-      <c r="J3" s="5" t="n">
+        <v>3534389673.28</v>
+      </c>
+      <c r="J3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="n">
-        <v>0.009616312625612796</v>
+      <c r="K3" s="4" t="n">
+        <v>0.01448439256345246</v>
       </c>
     </row>
     <row r="4">
@@ -1138,7 +1136,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C4" s="3">
@@ -1155,7 +1153,7 @@
         <v/>
       </c>
       <c r="F4" s="3">
-        <f>IF(AND(C4="PASS",D4="PASS",E4="PASS",F4="PASS"),"PASS","FAIL")</f>
+        <f>IF(AND(C4="PASS",D4="PASS",E4="PASS"),"PASS","FAIL")</f>
         <v/>
       </c>
       <c r="G4" t="inlineStr">
@@ -1169,12 +1167,12 @@
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>190203088.24</v>
-      </c>
-      <c r="J4" s="5" t="n">
+        <v>9851169.699999999</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1201,7 +1199,7 @@
         <v/>
       </c>
       <c r="F5" s="3">
-        <f>IF(AND(C5="PASS",D5="PASS",E5="PASS",F5="PASS"),"PASS","FAIL")</f>
+        <f>IF(AND(C5="PASS",D5="PASS",E5="PASS"),"PASS","FAIL")</f>
         <v/>
       </c>
       <c r="G5" t="inlineStr">
@@ -1217,10 +1215,10 @@
       <c r="I5" s="3" t="n">
         <v>2949398.84</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="4" t="n">
         <v>0.02187119596208969</v>
       </c>
     </row>
@@ -1230,7 +1228,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C6" s="3">
@@ -1247,27 +1245,27 @@
         <v/>
       </c>
       <c r="F6" s="3">
-        <f>IF(AND(C6="PASS",D6="PASS",E6="PASS",F6="PASS"),"PASS","FAIL")</f>
+        <f>IF(AND(C6="PASS",D6="PASS",E6="PASS"),"PASS","FAIL")</f>
         <v/>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>None (0.81%), None (0.51%), None (2.21%), None (1.40%), None (1.97%), None (2.08%), None (0.45%), None (0.54%), None (1.37%), None (1.80%), None (1.55%), None (0.45%)</t>
+          <t>None (0.24%), None (0.94%), None (0.95%), None (0.54%), None (0.78%), None (0.21%), None (0.78%), None (0.88%), None (0.82%), None (0.18%), None (0.21%), None (0.20%), None (0.60%), None (0.78%), None (0.60%), None (0.42%), None (0.96%), None (0.81%), None (0.23%), None (0.16%), None (0.63%), None (0.93%), None (0.77%), None (0.77%), None (0.21%), None (0.38%), None (0.80%), None (0.37%), None (0.74%), None (0.61%), None (0.18%), None (0.85%), None (0.20%)</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>2472809024.16</v>
-      </c>
-      <c r="J6" s="5" t="n">
+        <v>663468524.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="n">
-        <v>0.02207467426989948</v>
+      <c r="K6" s="4" t="n">
+        <v>0.009616312625612796</v>
       </c>
     </row>
     <row r="7">
@@ -1276,7 +1274,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C7" s="3">
@@ -1293,27 +1291,27 @@
         <v/>
       </c>
       <c r="F7" s="3">
-        <f>IF(AND(C7="PASS",D7="PASS",E7="PASS",F7="PASS"),"PASS","FAIL")</f>
+        <f>IF(AND(C7="PASS",D7="PASS",E7="PASS"),"PASS","FAIL")</f>
         <v/>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>None (1.36%), None (1.35%), None (1.45%), None (1.38%)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>3534389673.28</v>
-      </c>
-      <c r="J7" s="5" t="n">
+        <v>190203088.24</v>
+      </c>
+      <c r="J7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="n">
-        <v>0.01448439256345246</v>
+      <c r="K7" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1322,7 +1320,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C8" s="3">
@@ -1339,27 +1337,27 @@
         <v/>
       </c>
       <c r="F8" s="3">
-        <f>IF(AND(C8="PASS",D8="PASS",E8="PASS",F8="PASS"),"PASS","FAIL")</f>
+        <f>IF(AND(C8="PASS",D8="PASS",E8="PASS"),"PASS","FAIL")</f>
         <v/>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%), None (0.00000%)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>None (0.81%), None (0.51%), None (2.21%), None (1.40%), None (1.97%), None (2.08%), None (0.45%), None (0.54%), None (1.37%), None (1.80%), None (1.55%), None (0.45%)</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>9851169.699999999</v>
-      </c>
-      <c r="J8" s="5" t="n">
+        <v>2472809024.16</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="n">
-        <v>0</v>
+      <c r="K8" s="4" t="n">
+        <v>0.02207467426989948</v>
       </c>
     </row>
     <row r="9">
@@ -10933,7 +10931,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C3" s="3">
@@ -10941,38 +10939,38 @@
         <v/>
       </c>
       <c r="D3" s="3" t="n">
-        <v>657311377.3779998</v>
+        <v>3475474371.456</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>38521279.14385921</v>
+        <v>372673266.3152868</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>-985920.0000000001</v>
+        <v>-25783353</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>5581024.7</v>
+        <v>29637499.67</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>701413681.221859</v>
+        <v>3877785137.441287</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>657311377.3779998</v>
+        <v>3848147637.771287</v>
       </c>
       <c r="L3" s="4">
         <f>K3/J3</f>
         <v/>
       </c>
       <c r="M3" s="3" t="n">
-        <v>661906482.0779998</v>
+        <v>3479328518.126</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>657311377.3779998</v>
+        <v>3449691018.456</v>
       </c>
       <c r="O3" s="4">
         <f>N3/M3</f>
@@ -10980,7 +10978,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -10990,7 +10988,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C4" s="3">
@@ -10998,38 +10996,38 @@
         <v/>
       </c>
       <c r="D4" s="3" t="n">
-        <v>188296705.485</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>11520885.509914</v>
+        <v>646176.3903</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>-234940</v>
+        <v>-15750</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1533246.56</v>
+        <v>82164.53999999999</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>201350837.554914</v>
+        <v>10476135.7203</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>188296705.485</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="L4" s="4">
         <f>K4/J4</f>
         <v/>
       </c>
       <c r="M4" s="3" t="n">
-        <v>189595012.045</v>
+        <v>9814209.329999998</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>188296705.485</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="O4" s="4">
         <f>N4/M4</f>
@@ -11104,7 +11102,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C6" s="3">
@@ -11112,38 +11110,38 @@
         <v/>
       </c>
       <c r="D6" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>657311377.3779998</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>181284521.994235</v>
+        <v>38521279.14385921</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>-3696850</v>
+        <v>-985920.0000000001</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>21042647.02</v>
+        <v>5581024.7</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>2648301763.465235</v>
+        <v>701413681.221859</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>657311377.3779998</v>
       </c>
       <c r="L6" s="4">
         <f>K6/J6</f>
         <v/>
       </c>
       <c r="M6" s="3" t="n">
-        <v>2463320391.471</v>
+        <v>661906482.0779998</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>657311377.3779998</v>
       </c>
       <c r="O6" s="4">
         <f>N6/M6</f>
@@ -11161,7 +11159,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C7" s="3">
@@ -11169,38 +11167,38 @@
         <v/>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3475474371.456</v>
+        <v>188296705.485</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>372673266.3152868</v>
+        <v>11520885.509914</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>-25783353</v>
+        <v>-234940</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>29637499.67</v>
+        <v>1533246.56</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>3877785137.441287</v>
+        <v>201350837.554914</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>3848147637.771287</v>
+        <v>188296705.485</v>
       </c>
       <c r="L7" s="4">
         <f>K7/J7</f>
         <v/>
       </c>
       <c r="M7" s="3" t="n">
-        <v>3479328518.126</v>
+        <v>189595012.045</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>3449691018.456</v>
+        <v>188296705.485</v>
       </c>
       <c r="O7" s="4">
         <f>N7/M7</f>
@@ -11208,7 +11206,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -11218,7 +11216,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C8" s="3">
@@ -11226,38 +11224,38 @@
         <v/>
       </c>
       <c r="D8" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2445974594.451</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>646176.3903</v>
+        <v>181284521.994235</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>-15750</v>
+        <v>-3696850</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>82164.53999999999</v>
+        <v>21042647.02</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>10476135.7203</v>
+        <v>2648301763.465235</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2445974594.451</v>
       </c>
       <c r="L8" s="4">
         <f>K8/J8</f>
         <v/>
       </c>
       <c r="M8" s="3" t="n">
-        <v>9814209.329999998</v>
+        <v>2463320391.471</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2445974594.451</v>
       </c>
       <c r="O8" s="4">
         <f>N8/M8</f>
@@ -11516,7 +11514,7 @@
       <c r="J2" s="3" t="n">
         <v>54251961.19</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
@@ -11538,24 +11536,24 @@
           <t>AMGN, VZ, MRK, KO, PG, MCD</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="n">
+      <c r="Q2" s="4" t="n">
         <v>0.2865331378518726</v>
       </c>
-      <c r="R2" s="5" t="n">
+      <c r="R2" s="4" t="n">
         <v>0.7134668621481275</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>(None, 0, 3.54%, 0.0000000%), (None, 0, 3.49%, 0.0000000%), (None, 0, 3.34%, 0.0000000%), (None, 0, 2.69%, 0.0000000%)</t>
-        </is>
-      </c>
-      <c r="T2" s="5" t="n">
-        <v>0</v>
+          <t>(CVX, 12,794, 3.54%, 0.0006354%), (CSCO, 24,912, 3.49%, 0.0006305%), (JNJ, 8,888, 3.34%, 0.0003689%), (IBM, 4,911, 2.69%, 0.0005254%)</t>
+        </is>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>6.354040333306514e-06</v>
       </c>
       <c r="U2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -11566,12 +11564,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>non-diversified</t>
+          <t>diversified</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -11600,16 +11598,16 @@
         <v/>
       </c>
       <c r="J3" s="3" t="n">
-        <v>663468524.62</v>
-      </c>
-      <c r="K3" s="5" t="n">
+        <v>3534389673.28</v>
+      </c>
+      <c r="K3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>658467017.83</v>
+        <v>3489899335.27</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>15119.15</v>
+        <v>70683.72</v>
       </c>
       <c r="N3" s="3" t="n">
         <v>0</v>
@@ -11621,28 +11619,28 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>FIX, IDCC, ENS, YOU, IBP, COKE, MLI, RL, WWD, WFRD, PSMT, FOXA, WMS, NYT, EME, ITT, WTS, IBKR, WRB, CBOE, CADE, NTRS, NOV, MTG</t>
-        </is>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>0.2510737438935515</v>
-      </c>
-      <c r="R3" s="5" t="n">
-        <v>0.7489262561064485</v>
+          <t>CAH, ALB, ATO, EXPD, CHRW, GWW, NUE, DOV, CAT, KVUE, CB, JNJ, CINF, MDT, ABBV, AFL</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.2525795865690216</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.7474204134309783</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>(None, 0, 0.89%, 0.0000000%), (None, 0, 0.88%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.86%, 0.0000000%), (None, 0, 0.85%, 0.0000000%), (None, 0, 0.85%, 0.0000000%), (None, 0, 0.84%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.82%, 0.0000000%), (None, 0, 0.82%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.80%, 0.0000000%), (None, 0, 0.80%, 0.0000000%), (None, 0, 0.80%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.79%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.77%, 0.0000000%), (None, 0, 0.77%, 0.0000000%), (None, 0, 0.77%, 0.0000000%), (None, 0, 0.76%, 0.0000000%), (None, 0, 0.75%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.73%, 0.0000000%), (None, 0, 0.73%, 0.0000000%), (None, 0, 0.71%, 0.0000000%), (None, 0, 0.70%, 0.0000000%), (None, 0, 0.70%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.68%, 0.0000000%), (None, 0, 0.68%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.64%, 0.0000000%), (None, 0, 0.64%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.63%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.60%, 0.0000000%), (None, 0, 0.60%, 0.0000000%), (None, 0, 0.59%, 0.0000000%), (None, 0, 0.58%, 0.0000000%), (None, 0, 0.58%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.52%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.50%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.44%, 0.0000000%), (None, 0, 0.43%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.35%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.32%, 0.0000000%), (None, 0, 0.26%, 0.0000000%), (None, 0, 0.26%, 0.0000000%), (None, 0, 0.25%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.24%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.22%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.15%, 0.0000000%), (None, 0, 0.15%, 0.0000000%), (None, 0, 0.15%, 0.0000000%), (None, 0, 0.14%, 0.0000000%), (None, 0, 0.14%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.09%, 0.0000000%)</t>
-        </is>
-      </c>
-      <c r="T3" s="5" t="n">
-        <v>0</v>
+          <t>(AMCR, 6,151,465, 1.46%, 0.2664864%), (IBM, 174,161, 1.45%, 0.0186321%), (SPGI, 104,375, 1.45%, 0.0336694%), (BDX, 266,189, 1.45%, 0.0928693%), (KO, 707,144, 1.43%, 0.0164391%), (CL, 627,008, 1.43%, 0.0777863%), (APD, 197,799, 1.43%, 0.0888624%), (XOM, 436,517, 1.43%, 0.0103510%), (SJM, 478,024, 1.43%, 0.4480696%), (SHW, 150,004, 1.43%, 0.0605115%), (ABT, 391,347, 1.42%, 0.0225058%), (BF/B, 1,782,589, 1.42%, 0.5871333%), (NEE, 604,453, 1.42%, 0.0290238%), (GD, 148,040, 1.42%, 0.0548052%), (ED, 491,200, 1.41%, 0.1360908%), (MCD, 161,468, 1.41%, 0.0226732%), (NDSN, 213,850, 1.40%, 0.3806088%), (PG, 328,995, 1.40%, 0.0140793%), (WMT, 467,360, 1.40%, 0.0058619%), (ESS, 189,512, 1.40%, 0.2942549%), (EMR, 384,851, 1.40%, 0.0685032%), (MKC, 730,139, 1.39%, 0.2883191%), (SYY, 637,060, 1.39%, 0.1330365%), (ITW, 197,948, 1.38%, 0.0682344%), (TROW, 487,280, 1.38%, 0.2232802%), (WST, 180,768, 1.38%, 0.2512642%), (GPC, 376,885, 1.38%, 0.2709249%), (PPG, 490,142, 1.37%, 0.2184234%), (FRT, 495,772, 1.37%, 0.5746747%), (LOW, 205,613, 1.37%, 0.0366512%), (ECL, 181,424, 1.37%, 0.0640541%), (CVX, 321,868, 1.37%, 0.0159853%), (CTAS, 258,722, 1.36%, 0.0643801%), (PNR, 457,956, 1.36%, 0.2798525%), (SWK, 723,284, 1.36%, 0.4669813%), (AOS, 734,207, 1.36%, 0.6476082%), (PEP, 327,210, 1.36%, 0.0239304%), (BEN, 2,216,597, 1.36%, 0.4254745%), (CHD, 568,235, 1.35%, 0.2366363%), (FDS, 172,713, 1.35%, 0.4615534%), (ADM, 808,802, 1.34%, 0.1683007%), (HRL, 2,073,413, 1.33%, 0.3769853%), (O, 830,810, 1.33%, 0.0903147%), (TGT, 532,578, 1.33%, 0.1176197%), (FAST, 1,175,421, 1.33%, 0.1023854%), (LIN, 111,293, 1.30%, 0.0238341%), (ERIE, 155,149, 1.29%, 0.3358998%), (BRO, 561,355, 1.28%, 0.1644173%), (ADP, 176,344, 1.27%, 0.0436011%), (ES, 684,805, 1.25%, 0.1825226%), (CLX, 423,700, 1.25%, 0.3473509%), (ROP, 98,385, 1.24%, 0.0914041%), (KMB, 416,545, 1.23%, 0.1255189%)</t>
+        </is>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>0.006476081857882142</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>985920.0000000001</v>
-      </c>
-      <c r="V3" s="5" t="n">
-        <v>0.001486008700359499</v>
+        <v>25783353</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.007294994435651012</v>
       </c>
       <c r="W3" t="inlineStr"/>
     </row>
@@ -11652,7 +11650,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -11686,49 +11684,49 @@
         <v/>
       </c>
       <c r="J4" s="3" t="n">
-        <v>190203088.24</v>
-      </c>
-      <c r="K4" s="5" t="n">
+        <v>9851169.699999999</v>
+      </c>
+      <c r="K4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>188834563.79</v>
+        <v>9778898.85</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>3874.91</v>
+        <v>200.73</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>37792730.415</v>
+        <v>2342534.395</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>(None, 29,910, 14,095,087.50), (None, 74,848, 11,936,759.04), (None, 59,475, 11,760,883.88)</t>
+          <t>(None, 8,542, 889,606.59), (None, 1,426, 847,215.12), (None, 7,961, 605,712.68)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>IBM, AVGO</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>0.1898006778825626</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>0.8101993221174375</v>
+          <t>GOOGLE, AMZN</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.2419566186636648</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.7580433813363352</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>(None, 0, 7.41%, 0.0000000%), (None, 0, 6.28%, 0.0000000%), (None, 0, 6.18%, 0.0000000%), (None, 0, 4.73%, 0.0000000%), (None, 0, 4.05%, 0.0000000%), (None, 0, 2.68%, 0.0000000%), (None, 0, 2.53%, 0.0000000%), (None, 0, 2.41%, 0.0000000%), (None, 0, 2.19%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.00%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.65%, 0.0000000%), (None, 0, 1.65%, 0.0000000%), (None, 0, 1.63%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.44%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.21%, 0.0000000%), (None, 0, 1.21%, 0.0000000%), (None, 0, 1.13%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.96%, 0.0000000%), (None, 0, 0.91%, 0.0000000%), (None, 0, 0.90%, 0.0000000%), (None, 0, 0.57%, 0.0000000%), (None, 0, 0.53%, 0.0000000%), (None, 0, 0.50%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.41%, 0.0000000%), (None, 0, 0.40%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.39%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.31%, 0.0000000%), (None, 0, 0.31%, 0.0000000%), (None, 0, 0.30%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.28%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.21%, 0.0000000%), (None, 0, 0.20%, 0.0000000%), (None, 0, 0.19%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.17%, 0.0000000%), (None, 0, 0.16%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.13%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.12%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.11%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.10%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.09%, 0.0000000%), (None, 0, 0.08%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.07%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.06%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.05%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.04%, 0.0000000%), (None, 0, 0.03%, 0.0000000%), (None, 0, 0.03%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.02%, 0.0000000%), (None, 0, 0.01%, 0.0000000%), (None, 0, 0.01%, 0.0000000%), (None, 0, 0.00%, 0.0000000%)</t>
-        </is>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>0</v>
+          <t>(NFLX, 8,542, 9.03%, 0.0002016%), (META, 1,426, 8.60%, 0.0000655%), (CSCO, 7,961, 6.15%, 0.0002015%), (CRM, 1,989, 4.58%, 0.0002089%), (BKNG, 88, 4.26%, 0.0002730%), (ANET, 3,201, 3.80%, 0.0002542%), (SNOW, 1,379, 3.28%, 0.0004070%), (DASH, 1,530, 2.95%, 0.0003765%), (NET, 1,293, 2.45%, 0.0004102%), (PYPL, 3,949, 2.43%, 0.0004221%), (RBLX, 2,666, 2.41%, 0.0004071%), (DDOG, 1,336, 2.13%, 0.0004105%), (ABNB, 1,774, 2.06%, 0.0004171%), (WDAY, 893, 2.04%, 0.0004115%), (CVNA, 571, 1.81%, 0.0004038%), (EBAY, 1,889, 1.55%, 0.0004179%), (VEEV, 621, 1.53%, 0.0003778%), (CPRT, 3,677, 1.52%, 0.0003799%), (FLUT, 727, 1.43%, 0.0004155%), (CIEN, 584, 1.06%, 0.0004140%), (TEAM, 683, 1.01%, 0.0004064%), (VRSN, 348, 0.89%, 0.0003754%), (ZM, 1,076, 0.86%, 0.0004038%), (HUBS, 218, 0.78%, 0.0004161%), (GDDY, 572, 0.74%, 0.0004233%), (CRWV, 904, 0.66%, 0.0002340%), (NTNX, 1,108, 0.65%, 0.0004122%), (DKNG, 2,052, 0.62%, 0.0004122%), (FFIV, 237, 0.56%, 0.0004080%), (DOCU, 835, 0.55%, 0.0004152%), (OKTA, 691, 0.55%, 0.0004102%), (AKAM, 593, 0.54%, 0.0004122%), (PAYC, 207, 0.34%, 0.0003679%), (DUOL, 164, 0.29%, 0.0004099%), (CFLT, 1,207, 0.25%, 0.0004040%), (DBX, 765, 0.23%, 0.0004186%), (BOX, 599, 0.18%, 0.0004134%), (MARA, 1,531, 0.16%, 0.0004048%)</t>
+        </is>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>4.232597512535001e-06</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>234940</v>
-      </c>
-      <c r="V4" s="5" t="n">
-        <v>0.001235206022015534</v>
+        <v>15750</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.0015987949126488</v>
       </c>
       <c r="W4" t="inlineStr"/>
     </row>
@@ -11774,7 +11772,7 @@
       <c r="J5" s="3" t="n">
         <v>2949398.84</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
@@ -11796,24 +11794,24 @@
           <t>LLY, INCY, SLB, UTHR, BKR, APO, TJX, CBOE, APH, CAT</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="Q5" s="4" t="n">
         <v>0.232095136781918</v>
       </c>
-      <c r="R5" s="5" t="n">
+      <c r="R5" s="4" t="n">
         <v>0.767904863218082</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>(None, 0, 2.14%, 0.0000000%), (None, 0, 2.12%, 0.0000000%), (None, 0, 2.10%, 0.0000000%), (None, 0, 2.09%, 0.0000000%), (None, 0, 2.05%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 2.02%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.01%, 0.0000000%), (None, 0, 2.00%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.98%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.94%, 0.0000000%), (None, 0, 1.92%, 0.0000000%), (None, 0, 1.92%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.89%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.83%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.73%, 0.0000000%), (None, 0, 1.72%, 0.0000000%), (None, 0, 1.70%, 0.0000000%), (None, 0, 1.66%, 0.0000000%), (None, 0, 1.61%, 0.0000000%), (None, 0, 1.61%, 0.0000000%), (None, 0, 1.60%, 0.0000000%), (None, 0, 1.57%, 0.0000000%)</t>
-        </is>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>0</v>
+          <t>(MNST, 875, 2.14%, 0.0000896%), (MCO, 130, 2.12%, 0.0000729%), (CPAY, 215, 2.10%, 0.0003073%), (INTU, 93, 2.09%, 0.0000334%), (GDDY, 477, 2.05%, 0.0003530%), (WMT, 570, 2.04%, 0.0000071%), (NVDA, 335, 2.03%, 0.0000014%), (AVGO, 176, 2.03%, 0.0000037%), (MA, 110, 2.02%, 0.0000123%), (PHM, 494, 2.01%, 0.0002534%), (COST, 66, 2.01%, 0.0000149%), (V, 180, 2.01%, 0.0000107%), (SCHW, 653, 2.00%, 0.0000367%), (MMC, 324, 1.99%, 0.0000661%), (AMP, 131, 1.99%, 0.0001410%), (NOC, 103, 1.98%, 0.0000722%), (FTNT, 736, 1.97%, 0.0000990%), (RMD, 229, 1.94%, 0.0001569%), (IBKR, 928, 1.92%, 0.0002084%), (CPRT, 1,386, 1.92%, 0.0001432%), (CDNS, 188, 1.91%, 0.0000691%), (NEM, 677, 1.91%, 0.0000620%), (ABNB, 488, 1.89%, 0.0001147%), (UBER, 666, 1.89%, 0.0000321%), (DXCM, 922, 1.89%, 0.0002364%), (DT, 1,276, 1.88%, 0.0004232%), (NOW, 68, 1.88%, 0.0000328%), (ADP, 218, 1.87%, 0.0000539%), (PANW, 296, 1.83%, 0.0000425%), (APP, 103, 1.81%, 0.0000335%), (NFLX, 512, 1.81%, 0.0000121%), (MPWR, 61, 1.81%, 0.0001273%), (META, 86, 1.73%, 0.0000039%), (MSI, 138, 1.72%, 0.0000829%), (ANET, 429, 1.70%, 0.0000341%), (TTD, 1,229, 1.66%, 0.0002791%), (FFIV, 204, 1.61%, 0.0003512%), (GRMN, 247, 1.61%, 0.0001284%), (PINS, 1,897, 1.60%, 0.0003184%), (CMG, 1,468, 1.57%, 0.0001110%)</t>
+        </is>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>4.232336710910507e-06</v>
       </c>
       <c r="U5" s="3" t="n">
         <v>4697</v>
       </c>
-      <c r="V5" s="5" t="n">
+      <c r="V5" s="4" t="n">
         <v>0.001592527920028612</v>
       </c>
       <c r="W5" t="inlineStr"/>
@@ -11824,7 +11822,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -11858,16 +11856,16 @@
         <v/>
       </c>
       <c r="J6" s="3" t="n">
-        <v>2472809024.16</v>
-      </c>
-      <c r="K6" s="5" t="n">
+        <v>663468524.62</v>
+      </c>
+      <c r="K6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>2454314499.24</v>
+        <v>658467017.83</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>49745.75</v>
+        <v>15119.15</v>
       </c>
       <c r="N6" s="3" t="n">
         <v>0</v>
@@ -11879,28 +11877,28 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>GOOGLE, KLAC, AMAT, MLI, NVDA, LRCX, ROST, BK, BKR, AXP</t>
-        </is>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>0.2456017518605123</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>0.7543982481394876</v>
+          <t>FIX, IDCC, ENS, YOU, IBP, COKE, MLI, RL, WWD, WFRD, PSMT, FOXA, WMS, NYT, EME, ITT, WTS, IBKR, WRB, CBOE, CADE, NTRS, NOV, MTG</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.2510737438935515</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.7489262561064485</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>(None, 0, 2.11%, 0.0000000%), (None, 0, 2.08%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 2.03%, 0.0000000%), (None, 0, 1.99%, 0.0000000%), (None, 0, 1.97%, 0.0000000%), (None, 0, 1.96%, 0.0000000%), (None, 0, 1.95%, 0.0000000%), (None, 0, 1.91%, 0.0000000%), (None, 0, 1.88%, 0.0000000%), (None, 0, 1.87%, 0.0000000%), (None, 0, 1.86%, 0.0000000%), (None, 0, 1.84%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.80%, 0.0000000%), (None, 0, 1.78%, 0.0000000%), (None, 0, 1.76%, 0.0000000%), (None, 0, 1.71%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.68%, 0.0000000%), (None, 0, 1.64%, 0.0000000%), (None, 0, 1.58%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.50%, 0.0000000%), (None, 0, 1.46%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.32%, 0.0000000%), (None, 0, 1.12%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.98%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.94%, 0.0000000%), (None, 0, 0.93%, 0.0000000%), (None, 0, 0.87%, 0.0000000%), (None, 0, 0.83%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.81%, 0.0000000%), (None, 0, 0.72%, 0.0000000%), (None, 0, 0.69%, 0.0000000%), (None, 0, 0.67%, 0.0000000%), (None, 0, 0.61%, 0.0000000%), (None, 0, 0.59%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.51%, 0.0000000%), (None, 0, 0.49%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.47%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.46%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.45%, 0.0000000%), (None, 0, 0.42%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.38%, 0.0000000%), (None, 0, 0.37%, 0.0000000%), (None, 0, 0.32%, 0.0000000%)</t>
-        </is>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>0</v>
+          <t>(AIZ, 26,023, 0.89%, 0.0519617%), (EWBC, 55,589, 0.88%, 0.0404032%), (AGO, 64,113, 0.87%, 0.1390463%), (ULS, 66,970, 0.86%, 0.1067185%), (OTTR, 69,012, 0.85%, 0.1646847%), (WTFC, 42,813, 0.85%, 0.0639275%), (WSM, 31,143, 0.84%, 0.0258665%), (SNA, 16,419, 0.83%, 0.0315704%), (AIT, 21,933, 0.83%, 0.0581501%), (UNM, 72,014, 0.82%, 0.0430368%), (FBP, 269,448, 0.82%, 0.1706048%), (IBOC, 81,061, 0.81%, 0.1303989%), (PRDO, 187,150, 0.81%, 0.2909558%), (G, 119,245, 0.80%, 0.0691619%), (SEIC, 65,995, 0.80%, 0.0539001%), (J, 40,998, 0.80%, 0.0345249%), (FELE, 56,615, 0.79%, 0.1271950%), (GGG, 63,814, 0.79%, 0.0384899%), (MZTI, 30,618, 0.79%, 0.1113949%), (AOS, 80,371, 0.79%, 0.0708913%), (LMAT, 59,387, 0.79%, 0.2617783%), (HBAN, 327,219, 0.78%, 0.0209003%), (PRI, 19,667, 0.78%, 0.0616210%), (SSD, 31,850, 0.78%, 0.0768224%), (CFR, 41,704, 0.78%, 0.0652225%), (EFSC, 95,105, 0.78%, 0.2569648%), (OZK, 114,125, 0.77%, 0.1020085%), (OFG, 127,741, 0.77%, 0.2906162%), (ACM, 49,240, 0.77%, 0.0373502%), (RGA, 26,884, 0.76%, 0.0409107%), (ATMU, 103,748, 0.75%, 0.1272859%), (DCI, 56,054, 0.74%, 0.0483927%), (SSB, 55,619, 0.74%, 0.0553338%), (BCO, 43,624, 0.73%, 0.1050029%), (CALM, 55,746, 0.73%, 0.1149411%), (WHD, 113,856, 0.71%, 0.1653919%), (ALSN, 54,818, 0.70%, 0.0658643%), (SYF, 61,716, 0.70%, 0.0171352%), (ALG, 28,329, 0.69%, 0.2338258%), (CHE, 10,238, 0.68%, 0.0722808%), (LECO, 19,637, 0.68%, 0.0356866%), (CAH, 21,410, 0.67%, 0.0090111%), (GHC, 4,113, 0.67%, 0.1210268%), (BRC, 56,451, 0.66%, 0.1293617%), (THG, 23,922, 0.66%, 0.0672269%), (INGR, 40,734, 0.66%, 0.0641176%), (LNC, 108,931, 0.66%, 0.0573505%), (OLED, 37,218, 0.64%, 0.0782841%), (OSW, 208,063, 0.64%, 0.2040786%), (BHE, 98,186, 0.63%, 0.2751932%), (DKS, 20,032, 0.63%, 0.0303030%), (NIC, 34,361, 0.63%, 0.2321859%), (TPR, 39,761, 0.63%, 0.0194288%), (AXS, 41,396, 0.63%, 0.0537347%), (RDN, 117,920, 0.63%, 0.0870328%), (TOL, 30,857, 0.61%, 0.0320150%), (UMBF, 37,148, 0.61%, 0.0489081%), (FULT, 220,146, 0.60%, 0.1219012%), (HOMB, 141,435, 0.60%, 0.0719616%), (DDS, 6,472, 0.59%, 0.0556648%), (KTB, 54,794, 0.58%, 0.0985617%), (PAYC, 23,769, 0.58%, 0.0422417%), (POWL, 13,644, 0.57%, 0.1128342%), (MSA, 24,235, 0.57%, 0.0618997%), (DLB, 55,014, 0.56%, 0.0904154%), (PRIM, 31,485, 0.56%, 0.0582706%), (CW, 6,907, 0.56%, 0.0187310%), (ENSG, 19,554, 0.54%, 0.0337576%), (CBSH, 65,587, 0.54%, 0.0495315%), (UNF, 21,639, 0.53%, 0.1487685%), (HCC, 46,668, 0.53%, 0.0887728%), (LZB, 91,736, 0.52%, 0.2223959%), (IEX, 20,184, 0.52%, 0.0269661%), (AYI, 9,825, 0.52%, 0.0320942%), (IPAR, 42,499, 0.52%, 0.1325413%), (CSGS, 43,492, 0.51%, 0.1524955%), (TGLS, 71,344, 0.51%, 0.1531991%), (FSS, 30,227, 0.50%, 0.0497084%), (CINF, 18,590, 0.46%, 0.0119153%), (ALLE, 18,837, 0.46%, 0.0218954%), (PHM, 25,224, 0.46%, 0.0129409%), (RGLD, 16,349, 0.45%, 0.0193713%), (ACT, 78,269, 0.45%, 0.0542045%), (ESI, 121,911, 0.45%, 0.0503765%), (ESNT, 46,603, 0.44%, 0.0482108%), (NTAP, 27,013, 0.44%, 0.0135323%), (LEA, 27,385, 0.43%, 0.0527953%), (HWC, 47,273, 0.42%, 0.0565378%), (SHOO, 70,004, 0.42%, 0.0963474%), (WINA, 6,587, 0.41%, 0.1849175%), (EXPO, 38,846, 0.41%, 0.0778676%), (BCPC, 17,070, 0.40%, 0.0527075%), (RJF, 16,603, 0.38%, 0.0083271%), (WDFC, 12,532, 0.38%, 0.0926386%), (SFBS, 35,284, 0.37%, 0.0645969%), (CF, 31,522, 0.37%, 0.0202097%), (HRB, 53,702, 0.35%, 0.0424773%), (HL, 177,097, 0.35%, 0.0264285%), (PKG, 11,674, 0.35%, 0.0129744%), (MTH, 32,433, 0.34%, 0.0460652%), (IDT, 45,502, 0.34%, 0.1936398%), (CSW, 8,629, 0.34%, 0.0517118%), (CSL, 6,846, 0.32%, 0.0163836%), (MTX, 35,910, 0.32%, 0.1153390%), (NHC, 13,281, 0.26%, 0.0855997%), (ORI, 37,706, 0.26%, 0.0152378%), (FTV, 31,490, 0.25%, 0.0099146%), (LDOS, 8,482, 0.24%, 0.0066341%), (JKHY, 9,231, 0.24%, 0.0127540%), (USLM, 13,171, 0.24%, 0.0459891%), (BOKF, 14,337, 0.24%, 0.0226680%), (INDB, 22,011, 0.23%, 0.0443974%), (NSSC, 39,608, 0.23%, 0.1110578%), (CNR, 19,534, 0.23%, 0.0381230%), (PEGA, 27,801, 0.23%, 0.0163802%), (SIGI, 19,265, 0.23%, 0.0318909%), (TPB, 15,147, 0.22%, 0.0794253%), (VLTO, 14,192, 0.21%, 0.0057157%), (PNFP, 15,502, 0.21%, 0.0199831%), (VRSN, 5,513, 0.21%, 0.0059471%), (FHI, 28,382, 0.21%, 0.0366040%), (EBC, 75,268, 0.21%, 0.0315673%), (ZION, 25,980, 0.20%, 0.0175967%), (CMC, 22,743, 0.20%, 0.0204951%), (CTRA, 52,507, 0.20%, 0.0068963%), (WING, 5,478, 0.20%, 0.0197144%), (FRME, 36,298, 0.20%, 0.0627721%), (PHIN, 25,018, 0.20%, 0.0650787%), (KBH, 21,084, 0.20%, 0.0325548%), (RNR, 4,903, 0.19%, 0.0106334%), (CNO, 30,850, 0.19%, 0.0323533%), (WAFD, 38,354, 0.18%, 0.0500046%), (PFG, 14,445, 0.18%, 0.0065751%), (TXRH, 6,986, 0.18%, 0.0105615%), (PRG, 42,767, 0.18%, 0.1081461%), (FCF, 74,508, 0.18%, 0.0718039%), (DOV, 6,470, 0.18%, 0.0047174%), (SLM, 41,819, 0.18%, 0.0205966%), (ESAB, 11,006, 0.18%, 0.0181285%), (WKC, 48,463, 0.18%, 0.0872284%), (MGY, 50,577, 0.17%, 0.0276147%), (TNC, 15,876, 0.17%, 0.0875870%), (EG, 3,620, 0.17%, 0.0086236%), (TEX, 25,607, 0.17%, 0.0390351%), (NBHC, 29,388, 0.16%, 0.0777051%), (EQH, 23,376, 0.16%, 0.0081583%), (HUBG, 27,169, 0.15%, 0.0448492%), (OMC, 13,385, 0.15%, 0.0069358%), (LII, 2,140, 0.15%, 0.0061016%), (SPB, 16,608, 0.14%, 0.0710494%), (ATKR, 14,876, 0.14%, 0.0441880%), (TNET, 15,017, 0.13%, 0.0312656%), (IOSP, 11,829, 0.13%, 0.0477407%), (TPL, 901, 0.12%, 0.0039209%), (KMPR, 19,625, 0.12%, 0.0335202%), (SLVM, 15,202, 0.11%, 0.0385463%), (SM, 31,047, 0.09%, 0.0271025%)</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0.002909558213551467</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>3696850</v>
-      </c>
-      <c r="V6" s="5" t="n">
-        <v>0.001495000205790579</v>
+        <v>985920.0000000001</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.001486008700359499</v>
       </c>
       <c r="W6" t="inlineStr"/>
     </row>
@@ -11910,17 +11908,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>diversified</t>
+          <t>non-diversified</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>diversified</t>
+          <t>non-diversified</t>
         </is>
       </c>
       <c r="E7" s="3">
@@ -11944,49 +11942,49 @@
         <v/>
       </c>
       <c r="J7" s="3" t="n">
-        <v>3534389673.28</v>
-      </c>
-      <c r="K7" s="5" t="n">
+        <v>190203088.24</v>
+      </c>
+      <c r="K7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>3489899335.27</v>
+        <v>188834563.79</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>70683.72</v>
+        <v>3874.91</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>0</v>
+        <v>37792730.415</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>(None, 29,910, 14,095,087.50), (None, 74,848, 11,936,759.04), (None, 59,475, 11,760,883.88)</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>CAH, ALB, ATO, EXPD, CHRW, GWW, NUE, DOV, CAT, KVUE, CB, JNJ, CINF, MDT, ABBV, AFL</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>0.2525795865690216</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>0.7474204134309783</v>
+          <t>IBM, AVGO</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.1898006778825626</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.8101993221174375</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>(None, 0, 1.46%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.45%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.42%, 0.0000000%), (None, 0, 1.41%, 0.0000000%), (None, 0, 1.41%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.40%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.39%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.38%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.37%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.36%, 0.0000000%), (None, 0, 1.35%, 0.0000000%), (None, 0, 1.35%, 0.0000000%), (None, 0, 1.34%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.33%, 0.0000000%), (None, 0, 1.30%, 0.0000000%), (None, 0, 1.29%, 0.0000000%), (None, 0, 1.28%, 0.0000000%), (None, 0, 1.27%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.25%, 0.0000000%), (None, 0, 1.24%, 0.0000000%), (None, 0, 1.23%, 0.0000000%)</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>0</v>
+          <t>(MSFT, 29,910, 7.41%, 0.0004024%), (TXN, 74,848, 6.28%, 0.0082375%), (ORCL, 59,475, 6.18%, 0.0020863%), (TSM, 32,822, 4.73%, 0.0006177%), (QCOM, 47,145, 4.05%, 0.0044020%), (AMAT, 22,730, 2.68%, 0.0028532%), (ADI, 20,663, 2.53%, 0.0042002%), (LRCX, 32,126, 2.41%, 0.0025577%), (CSCO, 54,838, 2.19%, 0.0013879%), (RCI, 103,152, 2.08%, 10315200.0000000%), (CRM, 16,824, 2.00%, 0.0017672%), (VZ, 85,661, 1.86%, 0.0020316%), (T, 129,355, 1.76%, 0.0083563%), (INTU, 4,808, 1.68%, 0.0017270%), (TMUS, 15,035, 1.65%, 0.0013442%), (GLW, 39,550, 1.65%, 0.0046130%), (KLAC, 2,823, 1.63%, 0.0021485%), (TU, 229,764, 1.60%, 22976400.0000000%), (CMCSA, 111,534, 1.60%, 0.0030688%), (MSI, 8,019, 1.55%, 0.0048146%), (TIGO, 51,895, 1.44%, 0.0310674%), (APH, 20,454, 1.42%, 0.0016710%), (HPQ, 103,509, 1.30%, 0.0110740%), (STX, 10,040, 1.25%, 0.0047013%), (NXPI, 12,032, 1.21%, 0.0047808%), (TEL, 10,517, 1.21%, 0.0035749%), (TRI, 15,917, 1.13%, 0.0035785%), (MCHP, 41,731, 1.12%, 0.0077216%), (DELL, 14,909, 0.96%, 0.0044253%), (CTSH, 22,788, 0.91%, 0.0047215%), (HPE, 83,539, 0.90%, 0.0063314%), (NTAP, 10,172, 0.57%, 0.0050957%), (NOK, 168,865, 0.53%, 0.0029408%), (SWKS, 15,323, 0.50%, 0.0103060%), (UI, 1,651, 0.46%, 0.0027289%), (ROP, 1,822, 0.42%, 0.0016927%), (MPWR, 890, 0.41%, 0.0018578%), (CDW, 5,485, 0.40%, 0.0042130%), (GEN, 28,175, 0.39%, 0.0045686%), (OTEX, 22,312, 0.39%, 0.0088536%), (SSNC, 7,612, 0.34%, 0.0031193%), (LOGI, 5,391, 0.31%, 539100.0000000%), (ERIC, 62,551, 0.31%, 0.0020115%), (LDOS, 3,096, 0.30%, 0.0024215%), (DOX, 7,146, 0.29%, 0.0064968%), (CCOI, 30,856, 0.28%, 0.0628161%), (SAP, 1,665, 0.21%, 0.0001355%), (IDCC, 1,198, 0.21%, 0.0046534%), (SNX, 2,647, 0.20%, 0.0032503%), (TLK, 17,056, 0.19%, 0.0017217%), (JOYY, 5,561, 0.18%, 0.0160476%), (MTCH, 10,150, 0.17%, 0.0042996%), (AMKR, 9,227, 0.16%, 0.0037327%), (AVT, 5,579, 0.13%, 0.0068598%), (ITRN, 6,305, 0.13%, 0.0316936%), (VIV, 18,613, 0.12%, 0.0011415%), (IRDM, 14,334, 0.12%, 0.0136846%), (ASX, 15,602, 0.11%, 0.0007034%), (DLB, 3,042, 0.11%, 0.0049995%), (SIMO, 2,323, 0.10%, 0.0068356%), (ENTG, 2,501, 0.10%, 0.0016497%), (OLED, 1,611, 0.10%, 0.0033886%), (KBR, 4,445, 0.09%, 0.0035003%), (CHT, 4,211, 0.09%, 0.0005428%), (TEF, 42,074, 0.09%, 0.0007420%), (WB, 18,003, 0.09%, 0.0114666%), (RELX, 4,233, 0.09%, 0.0002321%), (PAYC, 1,027, 0.09%, 0.0018252%), (CNXC, 4,393, 0.08%, 0.0070562%), (SAIC, 1,639, 0.07%, 0.0035613%), (KLIC, 3,132, 0.07%, 0.0059813%), (UMC, 17,586, 0.07%, 0.0007003%), (YOU, 3,446, 0.06%, 0.0035368%), (CSGS, 1,537, 0.06%, 0.0053892%), (VSH, 8,828, 0.06%, 0.0071487%), (INGM, 4,974, 0.05%, 0.0021159%), (WIT, 36,333, 0.05%, 0.0003465%), (POWI, 2,853, 0.05%, 0.0051558%), (HIMX, 13,047, 0.05%, 0.0074768%), (STM, 3,797, 0.04%, 0.0004255%), (MGIC, 3,763, 0.04%, 0.0076641%), (KARO, 1,751, 0.04%, 0.0056679%), (BHE, 1,663, 0.04%, 0.0046610%), (OPRA, 4,954, 0.03%, 0.0055261%), (ADEA, 4,018, 0.03%, 0.0036691%), (ATEN, 2,702, 0.02%, 0.0037671%), (CNXN, 547, 0.02%, 0.0021667%), (HCKT, 1,680, 0.02%, 0.0061922%), (SHEN, 2,488, 0.01%, 0.0045320%), (OSPN, 1,681, 0.01%, 0.0044205%), (CLMB, 71, 0.00%, 0.0015390%)</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>229764</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>25783353</v>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>0.007294994435651012</v>
+        <v>234940</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.001235206022015534</v>
       </c>
       <c r="W7" t="inlineStr"/>
     </row>
@@ -11996,7 +11994,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12006,7 +12004,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>non-diversified</t>
+          <t>diversified</t>
         </is>
       </c>
       <c r="E8" s="3">
@@ -12030,49 +12028,49 @@
         <v/>
       </c>
       <c r="J8" s="3" t="n">
-        <v>9851169.699999999</v>
-      </c>
-      <c r="K8" s="5" t="n">
+        <v>2472809024.16</v>
+      </c>
+      <c r="K8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>9778898.85</v>
+        <v>2454314499.24</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>200.73</v>
+        <v>49745.75</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>2342534.395</v>
+        <v>0</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>(None, 8,542, 889,606.59), (None, 1,426, 847,215.12), (None, 7,961, 605,712.68)</t>
+          <t>None</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>GOOGLE, AMZN</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>0.2419566186636648</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>0.7580433813363352</v>
+          <t>GOOGLE, KLAC, AMAT, MLI, NVDA, LRCX, ROST, BK, BKR, AXP</t>
+        </is>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.2456017518605123</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.7543982481394876</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>(None, 0, 9.03%, 0.0000000%), (None, 0, 8.60%, 0.0000000%), (None, 0, 6.15%, 0.0000000%), (None, 0, 4.58%, 0.0000000%), (None, 0, 4.26%, 0.0000000%), (None, 0, 3.80%, 0.0000000%), (None, 0, 3.28%, 0.0000000%), (None, 0, 2.95%, 0.0000000%), (None, 0, 2.45%, 0.0000000%), (None, 0, 2.43%, 0.0000000%), (None, 0, 2.41%, 0.0000000%), (None, 0, 2.13%, 0.0000000%), (None, 0, 2.06%, 0.0000000%), (None, 0, 2.04%, 0.0000000%), (None, 0, 1.81%, 0.0000000%), (None, 0, 1.55%, 0.0000000%), (None, 0, 1.53%, 0.0000000%), (None, 0, 1.52%, 0.0000000%), (None, 0, 1.43%, 0.0000000%), (None, 0, 1.06%, 0.0000000%), (None, 0, 1.01%, 0.0000000%), (None, 0, 0.89%, 0.0000000%), (None, 0, 0.86%, 0.0000000%), (None, 0, 0.78%, 0.0000000%), (None, 0, 0.74%, 0.0000000%), (None, 0, 0.66%, 0.0000000%), (None, 0, 0.65%, 0.0000000%), (None, 0, 0.62%, 0.0000000%), (None, 0, 0.56%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.55%, 0.0000000%), (None, 0, 0.54%, 0.0000000%), (None, 0, 0.34%, 0.0000000%), (None, 0, 0.29%, 0.0000000%), (None, 0, 0.25%, 0.0000000%), (None, 0, 0.23%, 0.0000000%), (None, 0, 0.18%, 0.0000000%), (None, 0, 0.16%, 0.0000000%)</t>
-        </is>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>0</v>
+          <t>(EBAY, 646,954, 2.11%, 0.1431314%), (JPM, 172,425, 2.08%, 0.0063339%), (TRV, 173,298, 2.04%, 0.0776900%), (HIG, 368,952, 2.03%, 0.1324068%), (MSFT, 104,498, 1.99%, 0.0014060%), (EWBC, 464,939, 1.97%, 0.3379271%), (CB, 162,220, 1.96%, 0.0412196%), (PHM, 402,071, 1.95%, 0.2062782%), (EA, 235,815, 1.91%, 0.0942860%), (WSM, 260,064, 1.88%, 0.2160018%), (SNA, 137,196, 1.87%, 0.2638001%), (PCAR, 446,607, 1.86%, 0.0850349%), (UNM, 601,655, 1.84%, 0.3595592%), (CTSH, 588,467, 1.81%, 0.1219251%), (RJF, 290,245, 1.80%, 0.1455709%), (V, 133,707, 1.78%, 0.0079228%), (MPWR, 49,877, 1.76%, 0.1041121%), (META, 71,095, 1.71%, 0.0032644%), (BKNG, 8,711, 1.68%, 0.0270244%), (GE, 144,165, 1.68%, 0.0136673%), (AAPL, 149,477, 1.64%, 0.0010116%), (SYF, 522,135, 1.58%, 0.1449686%), (STT, 335,473, 1.55%, 0.1201067%), (ADP, 148,576, 1.52%, 0.0367354%), (ACN, 147,106, 1.50%, 0.0236181%), (CRM, 163,220, 1.50%, 0.0171450%), (QCOM, 221,793, 1.46%, 0.0207090%), (BLK, 34,274, 1.40%, 0.0220908%), (PNC, 181,666, 1.37%, 0.0463246%), (ABT, 257,276, 1.33%, 0.0147956%), (LEN, 265,519, 1.32%, 0.1186393%), (ELV, 86,009, 1.12%, 0.0387012%), (ALL, 113,141, 0.98%, 0.0432361%), (GEV, 43,412, 0.98%, 0.0160003%), (DHI, 158,728, 0.94%, 0.0543476%), (MA, 42,832, 0.94%, 0.0048058%), (AFL, 206,325, 0.93%, 0.0393664%), (COST, 23,863, 0.87%, 0.0053845%), (ACM, 199,064, 0.83%, 0.1509968%), (PGR, 88,615, 0.81%, 0.0151118%), (AMP, 44,499, 0.81%, 0.0478969%), (ODFL, 132,630, 0.72%, 0.0634295%), (COKE, 105,387, 0.69%, 0.1397660%), (PAYC, 102,167, 0.67%, 0.1815689%), (CSCO, 198,710, 0.61%, 0.0050292%), (JNJ, 70,869, 0.59%, 0.0029415%), (FOXA, 206,963, 0.55%, 0.0993287%), (NTRS, 105,844, 0.54%, 0.0559674%), (MCK, 15,288, 0.54%, 0.0123863%), (BAC, 243,510, 0.51%, 0.0033346%), (CINF, 73,613, 0.49%, 0.0471822%), (XOM, 99,741, 0.47%, 0.0023651%), (LNC, 289,447, 0.47%, 0.1523894%), (VLTO, 116,354, 0.47%, 0.0468608%), (MET, 151,863, 0.46%, 0.0230482%), (DOV, 61,882, 0.46%, 0.0451189%), (RMD, 45,009, 0.46%, 0.0308352%), (WTFC, 85,252, 0.45%, 0.1272966%), (MTB, 58,879, 0.45%, 0.0383100%), (CF, 131,225, 0.42%, 0.0841323%), (EG, 30,359, 0.38%, 0.0723211%), (EOG, 88,291, 0.38%, 0.0162719%), (EQH, 205,170, 0.37%, 0.0716046%), (CSL, 25,762, 0.32%, 0.0616526%)</t>
+        </is>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>0.003595591500215441</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>15750</v>
-      </c>
-      <c r="V8" s="5" t="n">
-        <v>0.0015987949126488</v>
+        <v>3696850</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.001495000205790579</v>
       </c>
       <c r="W8" t="inlineStr"/>
     </row>
@@ -12538,10 +12536,10 @@
       <c r="J2" s="3" t="n">
         <v>896.65</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="4" t="n">
         <v>2712598.0595</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="3" t="n">
@@ -12552,7 +12550,7 @@
           <t>None</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="O2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="inlineStr">
@@ -12577,7 +12575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -12604,18 +12602,18 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>663468524.62</v>
+        <v>3534389673.28</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>657311377.378</v>
+        <v>3449691018.455999</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>15119.15</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>33173426.231</v>
-      </c>
-      <c r="L3" s="5" t="n">
+        <v>70683.72</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>176719483.664</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
@@ -12626,7 +12624,7 @@
           <t>None</t>
         </is>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="O3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="inlineStr">
@@ -12636,12 +12634,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>ATMU (0.75%)</t>
+          <t>PG (1.42%)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>DCI (0.75%)</t>
+          <t>WMT (1.42%)</t>
         </is>
       </c>
     </row>
@@ -12651,7 +12649,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -12678,29 +12676,29 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>190203088.24</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>188296705.485</v>
+        <v>9747794.789999999</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>3874.91</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>9510154.412</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0.3899373989175353</v>
+        <v>200.73</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>492558.485</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.4815065343476786</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>(, 9.81%), (, 9.17%), (, 7.46%), (, 6.32%), (, 6.23%)</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="n">
+          <t>(, 13.71%), (, 10.48%), (, 9.10%), (, 8.66%), (, 6.19%)</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="inlineStr">
@@ -12710,12 +12708,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>AMAT (2.69%)</t>
+          <t>CRM (4.61%)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>ADI (2.55%)</t>
+          <t>BKNG (4.29%)</t>
         </is>
       </c>
     </row>
@@ -12760,10 +12758,10 @@
       <c r="J5" s="3" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="4" t="n">
         <v>147469.942</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
@@ -12774,7 +12772,7 @@
           <t>None</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="O5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="inlineStr">
@@ -12799,7 +12797,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12826,18 +12824,18 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>663468524.62</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>657311377.378</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>49745.75</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>123640451.208</v>
-      </c>
-      <c r="L6" s="5" t="n">
+        <v>15119.15</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>33173426.231</v>
+      </c>
+      <c r="L6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
@@ -12848,7 +12846,7 @@
           <t>None</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="O6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="inlineStr">
@@ -12858,12 +12856,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>UNM (1.85%)</t>
+          <t>ATMU (0.75%)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>CTSH (1.82%)</t>
+          <t>DCI (0.75%)</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12871,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -12900,44 +12898,44 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>190203088.24</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>3449691018.455999</v>
+        <v>188296705.485</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>70683.72</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>176719483.664</v>
-      </c>
-      <c r="L7" s="5" t="n">
+        <v>3874.91</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>9510154.412</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.3899373989175353</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>(, 9.81%), (, 9.17%), (, 7.46%), (, 6.32%), (, 6.23%)</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>PG (1.42%)</t>
+          <t>AMAT (2.69%)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>WMT (1.42%)</t>
+          <t>ADI (2.55%)</t>
         </is>
       </c>
     </row>
@@ -12947,7 +12945,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12974,29 +12972,29 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2472809024.16</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2445974594.451</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>200.73</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>492558.485</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>0.4815065343476786</v>
+        <v>49745.75</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>123640451.208</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>(, 13.71%), (, 10.48%), (, 9.10%), (, 8.66%), (, 6.19%)</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="n">
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="inlineStr">
@@ -13006,12 +13004,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>CRM (4.61%)</t>
+          <t>UNM (1.85%)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>BKNG (4.29%)</t>
+          <t>CTSH (1.82%)</t>
         </is>
       </c>
     </row>
@@ -13221,10 +13219,10 @@
       <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="4" t="n">
         <v>0.3680858649342406</v>
       </c>
       <c r="G2" s="3">
@@ -13242,20 +13240,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>663468524.62</v>
+        <v>3534389673.28</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>0.990719759847648</v>
+      <c r="F3" s="4" t="n">
+        <v>0.9833308414549194</v>
       </c>
       <c r="G3" s="3">
         <f>IF(E3&lt;=0.15,"PASS","FAIL")</f>
@@ -13272,20 +13270,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>190203088.24</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>0.9899771198636139</v>
+      <c r="F4" s="4" t="n">
+        <v>0.989506331415649</v>
       </c>
       <c r="G4" s="3">
         <f>IF(E4&lt;=0.15,"PASS","FAIL")</f>
@@ -13311,10 +13309,10 @@
       <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="4" t="n">
         <v>0.9898008622665627</v>
       </c>
       <c r="G5" s="3">
@@ -13332,20 +13330,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>663468524.62</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>0.9891481997004942</v>
+      <c r="F6" s="4" t="n">
+        <v>0.990719759847648</v>
       </c>
       <c r="G6" s="3">
         <f>IF(E6&lt;=0.15,"PASS","FAIL")</f>
@@ -13362,20 +13360,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>190203088.24</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>0.9833308414549194</v>
+      <c r="F7" s="4" t="n">
+        <v>0.9899771198636139</v>
       </c>
       <c r="G7" s="3">
         <f>IF(E7&lt;=0.15,"PASS","FAIL")</f>
@@ -13392,20 +13390,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2472809024.16</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>0.989506331415649</v>
+      <c r="F8" s="4" t="n">
+        <v>0.9891481997004942</v>
       </c>
       <c r="G8" s="3">
         <f>IF(E8&lt;=0.15,"PASS","FAIL")</f>
@@ -13513,14 +13511,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>657311377.3779998</v>
+        <v>3475474371.456</v>
       </c>
     </row>
     <row r="4">
@@ -13529,14 +13527,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>188296705.485</v>
+        <v>9747794.789999999</v>
       </c>
     </row>
     <row r="5">
@@ -13561,14 +13559,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>2445974594.451</v>
+        <v>657311377.3779998</v>
       </c>
     </row>
     <row r="7">
@@ -13577,14 +13575,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>3475474371.456</v>
+        <v>188296705.485</v>
       </c>
     </row>
     <row r="8">
@@ -13593,14 +13591,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>9747794.789999999</v>
+        <v>2445974594.451</v>
       </c>
     </row>
     <row r="9">
@@ -13683,7 +13681,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
@@ -13696,7 +13694,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
@@ -13722,7 +13720,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
@@ -13735,7 +13733,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
@@ -13748,7 +13746,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
@@ -13873,13 +13871,13 @@
           <t>None</t>
         </is>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>IF(E2&lt;=0.03,"PASS","FAIL")</f>
         <v/>
       </c>
@@ -13902,24 +13900,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>KNG</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>663468524.62</v>
+        <v>3534389673.28</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>IF(E3&lt;=0.03,"PASS","FAIL")</f>
         <v/>
       </c>
@@ -13942,24 +13940,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>190203088.24</v>
+        <v>9851169.699999999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>IF(E4&lt;=0.03,"PASS","FAIL")</f>
         <v/>
       </c>
@@ -13993,13 +13991,13 @@
           <t>None</t>
         </is>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>IF(E5&lt;=0.03,"PASS","FAIL")</f>
         <v/>
       </c>
@@ -14022,24 +14020,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>SDVD</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>2472809024.16</v>
+        <v>663468524.62</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>IF(E6&lt;=0.03,"PASS","FAIL")</f>
         <v/>
       </c>
@@ -14062,24 +14060,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>TDVI</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>3534389673.28</v>
+        <v>190203088.24</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f>IF(E7&lt;=0.03,"PASS","FAIL")</f>
         <v/>
       </c>
@@ -14102,24 +14100,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>9851169.699999999</v>
+        <v>2472809024.16</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f>IF(E8&lt;=0.03,"PASS","FAIL")</f>
         <v/>
       </c>
